--- a/storage/excel/summary13.xlsx
+++ b/storage/excel/summary13.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="101">
   <si>
     <t>จำนวน</t>
   </si>
@@ -284,48 +284,6 @@
     <t>no_ra900(265)</t>
   </si>
   <si>
-    <t>no_ra900_o264_ra901(266)</t>
-  </si>
-  <si>
-    <t>no_ra900_o264_ra901(267)</t>
-  </si>
-  <si>
-    <t>no_ra900_o264_ra901(268)</t>
-  </si>
-  <si>
-    <t>no_ra900_o264_ra901(269)</t>
-  </si>
-  <si>
-    <t>no_ra900_o264_ra901(270)</t>
-  </si>
-  <si>
-    <t>no_ra900_o264_ra901(271)</t>
-  </si>
-  <si>
-    <t>no_ra900_o264_ra901(272)</t>
-  </si>
-  <si>
-    <t>no_ra900_o264_ra902(266)</t>
-  </si>
-  <si>
-    <t>no_ra900_o264_ra902(267)</t>
-  </si>
-  <si>
-    <t>no_ra900_o264_ra902(268)</t>
-  </si>
-  <si>
-    <t>no_ra900_o264_ra902(269)</t>
-  </si>
-  <si>
-    <t>no_ra900_o264_ra902(270)</t>
-  </si>
-  <si>
-    <t>no_ra900_o264_ra902(271)</t>
-  </si>
-  <si>
-    <t>no_ra900_o264_ra902(272)</t>
-  </si>
-  <si>
     <t>no_ra900_o264_ra901(266), no_ra900_o264_ra902(267)</t>
   </si>
   <si>
@@ -353,57 +311,6 @@
     <t>no_ra904(265)</t>
   </si>
   <si>
-    <t>no_ra904_o264_ra905(228)</t>
-  </si>
-  <si>
-    <t>no_ra904_o264_ra905(229)</t>
-  </si>
-  <si>
-    <t>no_ra904_o264_ra905(230)</t>
-  </si>
-  <si>
-    <t>no_ra904_o264_ra905(231)</t>
-  </si>
-  <si>
-    <t>no_ra904_o264_ra905(232)</t>
-  </si>
-  <si>
-    <t>no_ra904_o264_ra905(233)</t>
-  </si>
-  <si>
-    <t>no_ra904_o264_ra905(270)</t>
-  </si>
-  <si>
-    <t>no_ra904_o264_ra905(234)</t>
-  </si>
-  <si>
-    <t>เบนซิน 95</t>
-  </si>
-  <si>
-    <t>no_ra904_o264_ra906(228)</t>
-  </si>
-  <si>
-    <t>no_ra904_o264_ra906(229)</t>
-  </si>
-  <si>
-    <t>no_ra904_o264_ra906(230)</t>
-  </si>
-  <si>
-    <t>no_ra904_o264_ra906(231)</t>
-  </si>
-  <si>
-    <t>no_ra904_o264_ra906(232)</t>
-  </si>
-  <si>
-    <t>no_ra904_o264_ra906(233)</t>
-  </si>
-  <si>
-    <t>no_ra904_o264_ra906(270)</t>
-  </si>
-  <si>
-    <t>no_ra904_o264_ra906(234)</t>
-  </si>
-  <si>
     <t>no_ra908(264)</t>
   </si>
   <si>
@@ -413,182 +320,17 @@
     <t>no_ra908(265)</t>
   </si>
   <si>
-    <t>no_ra908_o264_ra909(280)</t>
-  </si>
-  <si>
-    <t>no_ra908_o264_ra909(281)</t>
-  </si>
-  <si>
-    <t>no_ra908_o264_ra909(282)</t>
-  </si>
-  <si>
-    <t>no_ra908_o264_ra909(283)</t>
-  </si>
-  <si>
-    <t>no_ra908_o264_ra909(284)</t>
-  </si>
-  <si>
-    <t>no_ra908_o264_ra909(285)</t>
-  </si>
-  <si>
-    <t>no_ra908_o264_ra910(280)</t>
-  </si>
-  <si>
-    <t>no_ra908_o264_ra910(281)</t>
-  </si>
-  <si>
-    <t>no_ra908_o264_ra910(282)</t>
-  </si>
-  <si>
-    <t>no_ra908_o264_ra910(283)</t>
-  </si>
-  <si>
-    <t>no_ra908_o264_ra910(284)</t>
-  </si>
-  <si>
-    <t>no_ra908_o264_ra910(285)</t>
-  </si>
-  <si>
-    <t>เดิม</t>
-  </si>
-  <si>
-    <t>ใหม่</t>
-  </si>
-  <si>
-    <t>no_ra900_o265_ra901(266)</t>
-  </si>
-  <si>
-    <t>no_ra900_o265_ra901(267)</t>
-  </si>
-  <si>
-    <t>no_ra900_o265_ra901(268)</t>
-  </si>
-  <si>
-    <t>no_ra900_o265_ra901(269)</t>
-  </si>
-  <si>
-    <t>no_ra900_o265_ra901(270)</t>
-  </si>
-  <si>
-    <t>no_ra900_o265_ra901(271)</t>
-  </si>
-  <si>
-    <t>no_ra900_o265_ra901(272)</t>
-  </si>
-  <si>
-    <t>no_ra900_o265_ra902(266)</t>
-  </si>
-  <si>
-    <t>no_ra900_o265_ra902(267)</t>
-  </si>
-  <si>
-    <t>no_ra900_o265_ra902(268)</t>
-  </si>
-  <si>
-    <t>no_ra900_o265_ra902(269)</t>
-  </si>
-  <si>
-    <t>no_ra900_o265_ra902(270)</t>
-  </si>
-  <si>
-    <t>no_ra900_o265_ra902(271)</t>
-  </si>
-  <si>
-    <t>no_ra900_o265_ra902(272)</t>
-  </si>
-  <si>
-    <t>no_ra904_o265_ra905(228)</t>
-  </si>
-  <si>
-    <t>no_ra904_o265_ra905(229)</t>
-  </si>
-  <si>
-    <t>no_ra904_o265_ra905(230)</t>
-  </si>
-  <si>
-    <t>no_ra904_o265_ra905(231)</t>
-  </si>
-  <si>
-    <t>no_ra904_o265_ra905(232)</t>
-  </si>
-  <si>
-    <t>no_ra904_o265_ra905(233)</t>
-  </si>
-  <si>
-    <t>no_ra904_o265_ra905(270)</t>
-  </si>
-  <si>
-    <t>no_ra904_o265_ra905(234)</t>
-  </si>
-  <si>
-    <t>no_ra904_o265_ra906(228)</t>
-  </si>
-  <si>
-    <t>no_ra904_o265_ra906(229)</t>
-  </si>
-  <si>
-    <t>no_ra904_o265_ra906(230)</t>
-  </si>
-  <si>
-    <t>no_ra904_o265_ra906(231)</t>
-  </si>
-  <si>
-    <t>no_ra904_o265_ra906(232)</t>
-  </si>
-  <si>
-    <t>no_ra904_o265_ra906(233)</t>
-  </si>
-  <si>
-    <t>no_ra904_o265_ra906(270)</t>
-  </si>
-  <si>
-    <t>no_ra904_o265_ra906(234)</t>
-  </si>
-  <si>
-    <t>จับคู่เชื้อเพลิงเดิมและที่เปลี่ยนใหม่ นับจำนวนแล้วกรอกข้อมูลลงช่องเชื้อเพลิงที่เปลี่ยนใหม่นั้นๆ โดยนับรวมทั้งคนที่เปลี่ยนและคนที่ไม่แน่ใจ</t>
-  </si>
-  <si>
-    <t>no_ra908_o265_ra909(280)</t>
-  </si>
-  <si>
-    <t>no_ra908_o265_ra909(281)</t>
-  </si>
-  <si>
-    <t>no_ra908_o265_ra909(282)</t>
-  </si>
-  <si>
-    <t>no_ra908_o265_ra909(283)</t>
-  </si>
-  <si>
-    <t>no_ra908_o265_ra909(284)</t>
-  </si>
-  <si>
-    <t>no_ra908_o265_ra909(285)</t>
-  </si>
-  <si>
-    <t>no_ra908_o265_ra910(280)</t>
-  </si>
-  <si>
-    <t>no_ra908_o265_ra910(281)</t>
-  </si>
-  <si>
-    <t>no_ra908_o265_ra910(282)</t>
-  </si>
-  <si>
-    <t>no_ra908_o265_ra910(283)</t>
-  </si>
-  <si>
-    <t>no_ra908_o265_ra910(284)</t>
-  </si>
-  <si>
-    <t>no_ra908_o265_ra910(285)</t>
+    <t>sadfsadf</t>
+  </si>
+  <si>
+    <t>fasdfsdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,23 +383,8 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -670,14 +397,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -762,22 +483,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -833,27 +543,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1213,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DH32"/>
+  <dimension ref="A1:DH16"/>
   <sheetViews>
-    <sheetView topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1530,485 +1219,485 @@
       <c r="DH6" s="19"/>
     </row>
     <row r="7" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="P7" s="38" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="P7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AD7" s="38" t="s">
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AD7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
-      <c r="AR7" s="38" t="s">
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25"/>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="25"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="25"/>
+      <c r="AR7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AS7" s="38"/>
-      <c r="AT7" s="38"/>
-      <c r="AU7" s="38"/>
-      <c r="AV7" s="38"/>
-      <c r="AW7" s="38"/>
-      <c r="AX7" s="38"/>
-      <c r="AY7" s="38"/>
-      <c r="AZ7" s="38"/>
-      <c r="BA7" s="38"/>
-      <c r="BB7" s="38"/>
-      <c r="BC7" s="38"/>
-      <c r="BD7" s="38"/>
-      <c r="BF7" s="38" t="s">
+      <c r="AS7" s="25"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="25"/>
+      <c r="AW7" s="25"/>
+      <c r="AX7" s="25"/>
+      <c r="AY7" s="25"/>
+      <c r="AZ7" s="25"/>
+      <c r="BA7" s="25"/>
+      <c r="BB7" s="25"/>
+      <c r="BC7" s="25"/>
+      <c r="BD7" s="25"/>
+      <c r="BF7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="BG7" s="38"/>
-      <c r="BH7" s="38"/>
-      <c r="BI7" s="38"/>
-      <c r="BJ7" s="38"/>
-      <c r="BK7" s="38"/>
-      <c r="BL7" s="38"/>
-      <c r="BM7" s="38"/>
-      <c r="BN7" s="38"/>
-      <c r="BO7" s="38"/>
-      <c r="BP7" s="38"/>
-      <c r="BQ7" s="38"/>
-      <c r="BR7" s="38"/>
-      <c r="BT7" s="38" t="s">
+      <c r="BG7" s="25"/>
+      <c r="BH7" s="25"/>
+      <c r="BI7" s="25"/>
+      <c r="BJ7" s="25"/>
+      <c r="BK7" s="25"/>
+      <c r="BL7" s="25"/>
+      <c r="BM7" s="25"/>
+      <c r="BN7" s="25"/>
+      <c r="BO7" s="25"/>
+      <c r="BP7" s="25"/>
+      <c r="BQ7" s="25"/>
+      <c r="BR7" s="25"/>
+      <c r="BT7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="BU7" s="38"/>
-      <c r="BV7" s="38"/>
-      <c r="BW7" s="38"/>
-      <c r="BX7" s="38"/>
-      <c r="BY7" s="38"/>
-      <c r="BZ7" s="38"/>
-      <c r="CA7" s="38"/>
-      <c r="CB7" s="38"/>
-      <c r="CC7" s="38"/>
-      <c r="CD7" s="38"/>
-      <c r="CE7" s="38"/>
-      <c r="CF7" s="38"/>
-      <c r="CH7" s="38" t="s">
+      <c r="BU7" s="25"/>
+      <c r="BV7" s="25"/>
+      <c r="BW7" s="25"/>
+      <c r="BX7" s="25"/>
+      <c r="BY7" s="25"/>
+      <c r="BZ7" s="25"/>
+      <c r="CA7" s="25"/>
+      <c r="CB7" s="25"/>
+      <c r="CC7" s="25"/>
+      <c r="CD7" s="25"/>
+      <c r="CE7" s="25"/>
+      <c r="CF7" s="25"/>
+      <c r="CH7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="CI7" s="38"/>
-      <c r="CJ7" s="38"/>
-      <c r="CK7" s="38"/>
-      <c r="CL7" s="38"/>
-      <c r="CM7" s="38"/>
-      <c r="CN7" s="38"/>
-      <c r="CO7" s="38"/>
-      <c r="CP7" s="38"/>
-      <c r="CQ7" s="38"/>
-      <c r="CR7" s="38"/>
-      <c r="CS7" s="38"/>
-      <c r="CT7" s="38"/>
-      <c r="CV7" s="38" t="s">
+      <c r="CI7" s="25"/>
+      <c r="CJ7" s="25"/>
+      <c r="CK7" s="25"/>
+      <c r="CL7" s="25"/>
+      <c r="CM7" s="25"/>
+      <c r="CN7" s="25"/>
+      <c r="CO7" s="25"/>
+      <c r="CP7" s="25"/>
+      <c r="CQ7" s="25"/>
+      <c r="CR7" s="25"/>
+      <c r="CS7" s="25"/>
+      <c r="CT7" s="25"/>
+      <c r="CV7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="CW7" s="38"/>
-      <c r="CX7" s="38"/>
-      <c r="CY7" s="38"/>
-      <c r="CZ7" s="38"/>
-      <c r="DA7" s="38"/>
-      <c r="DB7" s="38"/>
-      <c r="DC7" s="38"/>
-      <c r="DD7" s="38"/>
-      <c r="DE7" s="38"/>
-      <c r="DF7" s="38"/>
-      <c r="DG7" s="38"/>
-      <c r="DH7" s="38"/>
+      <c r="CW7" s="25"/>
+      <c r="CX7" s="25"/>
+      <c r="CY7" s="25"/>
+      <c r="CZ7" s="25"/>
+      <c r="DA7" s="25"/>
+      <c r="DB7" s="25"/>
+      <c r="DC7" s="25"/>
+      <c r="DD7" s="25"/>
+      <c r="DE7" s="25"/>
+      <c r="DF7" s="25"/>
+      <c r="DG7" s="25"/>
+      <c r="DH7" s="25"/>
     </row>
     <row r="8" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="P8" s="39" t="s">
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="P8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="40" t="s">
+      <c r="Q8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="43" t="s">
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AD8" s="39" t="s">
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AD8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AE8" s="40" t="s">
+      <c r="AE8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="41"/>
-      <c r="AI8" s="41"/>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="43" t="s">
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AL8" s="43"/>
-      <c r="AM8" s="43"/>
-      <c r="AN8" s="43"/>
-      <c r="AO8" s="43"/>
-      <c r="AP8" s="43"/>
-      <c r="AR8" s="39" t="s">
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
+      <c r="AR8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="AS8" s="40" t="s">
+      <c r="AS8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="AT8" s="41"/>
-      <c r="AU8" s="41"/>
-      <c r="AV8" s="41"/>
-      <c r="AW8" s="41"/>
-      <c r="AX8" s="42"/>
-      <c r="AY8" s="43" t="s">
+      <c r="AT8" s="28"/>
+      <c r="AU8" s="28"/>
+      <c r="AV8" s="28"/>
+      <c r="AW8" s="28"/>
+      <c r="AX8" s="29"/>
+      <c r="AY8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AZ8" s="43"/>
-      <c r="BA8" s="43"/>
-      <c r="BB8" s="43"/>
-      <c r="BC8" s="43"/>
-      <c r="BD8" s="43"/>
-      <c r="BF8" s="39" t="s">
+      <c r="AZ8" s="30"/>
+      <c r="BA8" s="30"/>
+      <c r="BB8" s="30"/>
+      <c r="BC8" s="30"/>
+      <c r="BD8" s="30"/>
+      <c r="BF8" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="BG8" s="40" t="s">
+      <c r="BG8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="BH8" s="41"/>
-      <c r="BI8" s="41"/>
-      <c r="BJ8" s="41"/>
-      <c r="BK8" s="41"/>
-      <c r="BL8" s="42"/>
-      <c r="BM8" s="43" t="s">
+      <c r="BH8" s="28"/>
+      <c r="BI8" s="28"/>
+      <c r="BJ8" s="28"/>
+      <c r="BK8" s="28"/>
+      <c r="BL8" s="29"/>
+      <c r="BM8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="BN8" s="43"/>
-      <c r="BO8" s="43"/>
-      <c r="BP8" s="43"/>
-      <c r="BQ8" s="43"/>
-      <c r="BR8" s="43"/>
-      <c r="BT8" s="39" t="s">
+      <c r="BN8" s="30"/>
+      <c r="BO8" s="30"/>
+      <c r="BP8" s="30"/>
+      <c r="BQ8" s="30"/>
+      <c r="BR8" s="30"/>
+      <c r="BT8" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="BU8" s="40" t="s">
+      <c r="BU8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="BV8" s="41"/>
-      <c r="BW8" s="41"/>
-      <c r="BX8" s="41"/>
-      <c r="BY8" s="41"/>
-      <c r="BZ8" s="42"/>
-      <c r="CA8" s="43" t="s">
+      <c r="BV8" s="28"/>
+      <c r="BW8" s="28"/>
+      <c r="BX8" s="28"/>
+      <c r="BY8" s="28"/>
+      <c r="BZ8" s="29"/>
+      <c r="CA8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="CB8" s="43"/>
-      <c r="CC8" s="43"/>
-      <c r="CD8" s="43"/>
-      <c r="CE8" s="43"/>
-      <c r="CF8" s="43"/>
-      <c r="CH8" s="39" t="s">
+      <c r="CB8" s="30"/>
+      <c r="CC8" s="30"/>
+      <c r="CD8" s="30"/>
+      <c r="CE8" s="30"/>
+      <c r="CF8" s="30"/>
+      <c r="CH8" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="CI8" s="40" t="s">
+      <c r="CI8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="CJ8" s="41"/>
-      <c r="CK8" s="41"/>
-      <c r="CL8" s="41"/>
-      <c r="CM8" s="41"/>
-      <c r="CN8" s="42"/>
-      <c r="CO8" s="43" t="s">
+      <c r="CJ8" s="28"/>
+      <c r="CK8" s="28"/>
+      <c r="CL8" s="28"/>
+      <c r="CM8" s="28"/>
+      <c r="CN8" s="29"/>
+      <c r="CO8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="CP8" s="43"/>
-      <c r="CQ8" s="43"/>
-      <c r="CR8" s="43"/>
-      <c r="CS8" s="43"/>
-      <c r="CT8" s="43"/>
-      <c r="CV8" s="39" t="s">
+      <c r="CP8" s="30"/>
+      <c r="CQ8" s="30"/>
+      <c r="CR8" s="30"/>
+      <c r="CS8" s="30"/>
+      <c r="CT8" s="30"/>
+      <c r="CV8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="CW8" s="40" t="s">
+      <c r="CW8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="CX8" s="41"/>
-      <c r="CY8" s="41"/>
-      <c r="CZ8" s="41"/>
-      <c r="DA8" s="41"/>
-      <c r="DB8" s="42"/>
-      <c r="DC8" s="43" t="s">
+      <c r="CX8" s="28"/>
+      <c r="CY8" s="28"/>
+      <c r="CZ8" s="28"/>
+      <c r="DA8" s="28"/>
+      <c r="DB8" s="29"/>
+      <c r="DC8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="DD8" s="43"/>
-      <c r="DE8" s="43"/>
-      <c r="DF8" s="43"/>
-      <c r="DG8" s="43"/>
-      <c r="DH8" s="43"/>
+      <c r="DD8" s="30"/>
+      <c r="DE8" s="30"/>
+      <c r="DF8" s="30"/>
+      <c r="DG8" s="30"/>
+      <c r="DH8" s="30"/>
     </row>
     <row r="9" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="B9" s="44"/>
-      <c r="C9" s="40" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="40" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="40" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43" t="s">
+      <c r="H9" s="29"/>
+      <c r="I9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43" t="s">
+      <c r="J9" s="30"/>
+      <c r="K9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43" t="s">
+      <c r="L9" s="30"/>
+      <c r="M9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="43"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="40" t="s">
+      <c r="N9" s="30"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="41"/>
-      <c r="S9" s="40" t="s">
+      <c r="R9" s="28"/>
+      <c r="S9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="41"/>
-      <c r="U9" s="40" t="s">
+      <c r="T9" s="28"/>
+      <c r="U9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="42"/>
-      <c r="W9" s="43" t="s">
+      <c r="V9" s="29"/>
+      <c r="W9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43" t="s">
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43" t="s">
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AB9" s="43"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="40" t="s">
+      <c r="AB9" s="30"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="40" t="s">
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="40" t="s">
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AJ9" s="42"/>
-      <c r="AK9" s="43" t="s">
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AL9" s="43"/>
-      <c r="AM9" s="43" t="s">
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AN9" s="43"/>
-      <c r="AO9" s="43" t="s">
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AP9" s="43"/>
-      <c r="AR9" s="39"/>
-      <c r="AS9" s="40" t="s">
+      <c r="AP9" s="30"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AT9" s="41"/>
-      <c r="AU9" s="40" t="s">
+      <c r="AT9" s="28"/>
+      <c r="AU9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AV9" s="41"/>
-      <c r="AW9" s="40" t="s">
+      <c r="AV9" s="28"/>
+      <c r="AW9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AX9" s="42"/>
-      <c r="AY9" s="43" t="s">
+      <c r="AX9" s="29"/>
+      <c r="AY9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AZ9" s="43"/>
-      <c r="BA9" s="43" t="s">
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="BB9" s="43"/>
-      <c r="BC9" s="43" t="s">
+      <c r="BB9" s="30"/>
+      <c r="BC9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BD9" s="43"/>
-      <c r="BF9" s="39"/>
-      <c r="BG9" s="40" t="s">
+      <c r="BD9" s="30"/>
+      <c r="BF9" s="26"/>
+      <c r="BG9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="BH9" s="41"/>
-      <c r="BI9" s="40" t="s">
+      <c r="BH9" s="28"/>
+      <c r="BI9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="BJ9" s="41"/>
-      <c r="BK9" s="40" t="s">
+      <c r="BJ9" s="28"/>
+      <c r="BK9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BL9" s="42"/>
-      <c r="BM9" s="43" t="s">
+      <c r="BL9" s="29"/>
+      <c r="BM9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="BN9" s="43"/>
-      <c r="BO9" s="43" t="s">
+      <c r="BN9" s="30"/>
+      <c r="BO9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="BP9" s="43"/>
-      <c r="BQ9" s="43" t="s">
+      <c r="BP9" s="30"/>
+      <c r="BQ9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BR9" s="43"/>
-      <c r="BT9" s="39"/>
-      <c r="BU9" s="40" t="s">
+      <c r="BR9" s="30"/>
+      <c r="BT9" s="26"/>
+      <c r="BU9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="BV9" s="41"/>
-      <c r="BW9" s="40" t="s">
+      <c r="BV9" s="28"/>
+      <c r="BW9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="BX9" s="41"/>
-      <c r="BY9" s="40" t="s">
+      <c r="BX9" s="28"/>
+      <c r="BY9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BZ9" s="42"/>
-      <c r="CA9" s="43" t="s">
+      <c r="BZ9" s="29"/>
+      <c r="CA9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="CB9" s="43"/>
-      <c r="CC9" s="43" t="s">
+      <c r="CB9" s="30"/>
+      <c r="CC9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="CD9" s="43"/>
-      <c r="CE9" s="43" t="s">
+      <c r="CD9" s="30"/>
+      <c r="CE9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="CF9" s="43"/>
-      <c r="CH9" s="39"/>
-      <c r="CI9" s="40" t="s">
+      <c r="CF9" s="30"/>
+      <c r="CH9" s="26"/>
+      <c r="CI9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CJ9" s="41"/>
-      <c r="CK9" s="40" t="s">
+      <c r="CJ9" s="28"/>
+      <c r="CK9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CL9" s="41"/>
-      <c r="CM9" s="40" t="s">
+      <c r="CL9" s="28"/>
+      <c r="CM9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="CN9" s="42"/>
-      <c r="CO9" s="43" t="s">
+      <c r="CN9" s="29"/>
+      <c r="CO9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="CP9" s="43"/>
-      <c r="CQ9" s="43" t="s">
+      <c r="CP9" s="30"/>
+      <c r="CQ9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="CR9" s="43"/>
-      <c r="CS9" s="43" t="s">
+      <c r="CR9" s="30"/>
+      <c r="CS9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="CT9" s="43"/>
-      <c r="CV9" s="39"/>
-      <c r="CW9" s="40" t="s">
+      <c r="CT9" s="30"/>
+      <c r="CV9" s="26"/>
+      <c r="CW9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CX9" s="41"/>
-      <c r="CY9" s="40" t="s">
+      <c r="CX9" s="28"/>
+      <c r="CY9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CZ9" s="41"/>
-      <c r="DA9" s="40" t="s">
+      <c r="CZ9" s="28"/>
+      <c r="DA9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="DB9" s="42"/>
-      <c r="DC9" s="43" t="s">
+      <c r="DB9" s="29"/>
+      <c r="DC9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="DD9" s="43"/>
-      <c r="DE9" s="43" t="s">
+      <c r="DD9" s="30"/>
+      <c r="DE9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="DF9" s="43"/>
-      <c r="DG9" s="43" t="s">
+      <c r="DF9" s="30"/>
+      <c r="DG9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="DH9" s="43"/>
+      <c r="DH9" s="30"/>
     </row>
     <row r="10" spans="1:112" x14ac:dyDescent="0.2">
-      <c r="B10" s="44"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="8" t="s">
         <v>0</v>
       </c>
@@ -2045,7 +1734,7 @@
       <c r="N10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="39"/>
+      <c r="P10" s="26"/>
       <c r="Q10" s="22" t="s">
         <v>0</v>
       </c>
@@ -2082,7 +1771,7 @@
       <c r="AB10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AD10" s="39"/>
+      <c r="AD10" s="26"/>
       <c r="AE10" s="22" t="s">
         <v>0</v>
       </c>
@@ -2119,7 +1808,7 @@
       <c r="AP10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AR10" s="39"/>
+      <c r="AR10" s="26"/>
       <c r="AS10" s="22" t="s">
         <v>0</v>
       </c>
@@ -2156,7 +1845,7 @@
       <c r="BD10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BF10" s="39"/>
+      <c r="BF10" s="26"/>
       <c r="BG10" s="22" t="s">
         <v>0</v>
       </c>
@@ -2193,7 +1882,7 @@
       <c r="BR10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BT10" s="39"/>
+      <c r="BT10" s="26"/>
       <c r="BU10" s="22" t="s">
         <v>0</v>
       </c>
@@ -2230,7 +1919,7 @@
       <c r="CF10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CH10" s="39"/>
+      <c r="CH10" s="26"/>
       <c r="CI10" s="22" t="s">
         <v>0</v>
       </c>
@@ -2267,7 +1956,7 @@
       <c r="CT10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CV10" s="39"/>
+      <c r="CV10" s="26"/>
       <c r="CW10" s="22" t="s">
         <v>0</v>
       </c>
@@ -2327,7 +2016,7 @@
         <v>24</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
@@ -2453,7 +2142,7 @@
         <v>7</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
@@ -2579,7 +2268,7 @@
         <v>25</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
@@ -2703,7 +2392,7 @@
         <v>26</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
@@ -2812,7 +2501,7 @@
         <v>27</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
@@ -2921,7 +2610,7 @@
         <v>28</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
@@ -3024,1036 +2713,6 @@
       <c r="DF16" s="4"/>
       <c r="DG16" s="4"/>
       <c r="DH16" s="4"/>
-    </row>
-    <row r="17" spans="15:102" x14ac:dyDescent="0.2">
-      <c r="P17" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q17" s="28"/>
-      <c r="AE17" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF17" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="AS17" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT17" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="BG17" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="BH17" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="BU17" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="BV17" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="CI17" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="CJ17" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="CW17" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="CX17" s="26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="15:102" x14ac:dyDescent="0.2">
-      <c r="O18" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q18" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC18" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD18" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF18" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ18" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR18" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="AS18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AT18" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="BE18" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="BF18" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="BG18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="BH18" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="BS18" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="BT18" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="BU18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="BV18" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="CG18" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="CH18" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="CI18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="CJ18" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="CU18" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="CV18" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="CW18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="CX18" s="29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="15:102" x14ac:dyDescent="0.2">
-      <c r="P19" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="R19" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD19" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE19" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR19" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT19" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="BF19" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="BG19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BH19" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="BT19" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="BU19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BV19" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="CH19" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="CI19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="CJ19" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="CV19" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="CW19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="CX19" s="29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="15:102" x14ac:dyDescent="0.2">
-      <c r="P20" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="R20" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD20" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF20" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="AR20" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS20" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF20" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="BG20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="BH20" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="BT20" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="BU20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="BV20" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="CH20" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="CI20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="CJ20" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="CV20" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="CW20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="CX20" s="29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="15:102" x14ac:dyDescent="0.2">
-      <c r="P21" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="R21" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD21" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE21" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF21" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="AR21" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="AS21" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT21" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="BF21" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="BG21" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="BH21" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="BT21" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="BU21" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="BV21" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="CH21" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="CI21" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="CJ21" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV21" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="CW21" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="CX21" s="29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="15:102" x14ac:dyDescent="0.2">
-      <c r="P22" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="R22" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD22" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF22" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR22" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AS22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AT22" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="BF22" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="BG22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="BH22" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT22" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="BU22" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="BV22" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="CH22" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="CI22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="CJ22" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="CV22" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="CW22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="CX22" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="15:102" x14ac:dyDescent="0.2">
-      <c r="P23" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R23" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD23" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE23" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF23" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="AR23" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="AS23" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AT23" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="BF23" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="BG23" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="BH23" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="BT23" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="BU23" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="BV23" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="CH23" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="CI23" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="CJ23" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="CV23" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="CW23" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="CX23" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="15:102" x14ac:dyDescent="0.2">
-      <c r="P24" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="R24" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD24" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF24" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR24" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AT24" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="BF24" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="BG24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH24" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="BT24" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="BU24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="BV24" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="CH24" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="CI24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="CJ24" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="CV24" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="CW24" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="CX24" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="15:102" x14ac:dyDescent="0.2">
-      <c r="O26" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="P26" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q26" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="R26" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC26" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD26" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE26" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF26" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ26" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="AR26" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="AS26" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT26" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="BE26" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="BF26" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="BG26" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="BH26" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="BS26" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="BT26" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="BU26" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="BV26" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="CG26" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="CH26" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="CI26" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="CJ26" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="CU26" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="CV26" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="CW26" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="CX26" s="29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="15:102" x14ac:dyDescent="0.2">
-      <c r="P27" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="R27" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE27" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF27" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="AQ27" s="3"/>
-      <c r="AR27" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="AS27" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT27" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="BE27" s="3"/>
-      <c r="BF27" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="BG27" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="BH27" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="BS27" s="3"/>
-      <c r="BT27" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="BU27" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="BV27" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="CG27" s="3"/>
-      <c r="CH27" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="CI27" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="CJ27" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="CU27" s="3"/>
-      <c r="CV27" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="CW27" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="CX27" s="29" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="15:102" x14ac:dyDescent="0.2">
-      <c r="P28" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q28" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="R28" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE28" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF28" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="AQ28" s="3"/>
-      <c r="AR28" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS28" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT28" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="BE28" s="3"/>
-      <c r="BF28" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="BG28" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="BH28" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="BS28" s="3"/>
-      <c r="BT28" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="BU28" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="BV28" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="CG28" s="3"/>
-      <c r="CH28" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="CI28" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="CJ28" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="CU28" s="3"/>
-      <c r="CV28" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="CW28" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="CX28" s="29" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="15:102" x14ac:dyDescent="0.2">
-      <c r="P29" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q29" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="R29" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE29" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="AF29" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="AQ29" s="3"/>
-      <c r="AR29" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="AS29" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT29" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE29" s="3"/>
-      <c r="BF29" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="BG29" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="BH29" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="BS29" s="3"/>
-      <c r="BT29" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="BU29" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="BV29" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="CG29" s="3"/>
-      <c r="CH29" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="CI29" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="CJ29" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="CU29" s="3"/>
-      <c r="CV29" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="CW29" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="CX29" s="29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="15:102" x14ac:dyDescent="0.2">
-      <c r="P30" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q30" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="R30" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE30" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF30" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="AQ30" s="3"/>
-      <c r="AR30" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AS30" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT30" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="BE30" s="3"/>
-      <c r="BF30" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="BG30" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="BH30" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="BS30" s="3"/>
-      <c r="BT30" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="BU30" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="BV30" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="CG30" s="3"/>
-      <c r="CH30" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="CI30" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="CJ30" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="CU30" s="3"/>
-      <c r="CV30" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="CW30" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="CX30" s="29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="15:102" x14ac:dyDescent="0.2">
-      <c r="P31" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q31" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="R31" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE31" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF31" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="AQ31" s="3"/>
-      <c r="AR31" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="AS31" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="AT31" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="BE31" s="3"/>
-      <c r="BF31" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="BG31" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="BH31" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="BS31" s="3"/>
-      <c r="BT31" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="BU31" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="BV31" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="CG31" s="3"/>
-      <c r="CH31" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="CI31" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="CJ31" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="CU31" s="3"/>
-      <c r="CV31" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="CW31" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="CX31" s="29" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="15:102" x14ac:dyDescent="0.2">
-      <c r="P32" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q32" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="R32" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE32" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF32" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="AQ32" s="3"/>
-      <c r="AR32" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS32" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="AT32" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="BE32" s="3"/>
-      <c r="BF32" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="BG32" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="BH32" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="BS32" s="3"/>
-      <c r="BT32" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="BU32" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="BV32" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="CG32" s="3"/>
-      <c r="CH32" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="CI32" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="CJ32" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="CU32" s="3"/>
-      <c r="CV32" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="CW32" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="CX32" s="32" t="s">
-        <v>157</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="80">
@@ -4145,10 +2804,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DV35"/>
+  <dimension ref="A1:DV17"/>
   <sheetViews>
-    <sheetView topLeftCell="DF10" workbookViewId="0">
-      <selection activeCell="DQ24" sqref="DQ24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="DM36" sqref="DM36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4488,544 +3147,544 @@
       <c r="DV6" s="19"/>
     </row>
     <row r="7" spans="1:126" x14ac:dyDescent="0.2">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="P7" s="38" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="P7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AD7" s="38" t="s">
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AD7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
-      <c r="AR7" s="38" t="s">
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25"/>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="25"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="25"/>
+      <c r="AR7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AS7" s="38"/>
-      <c r="AT7" s="38"/>
-      <c r="AU7" s="38"/>
-      <c r="AV7" s="38"/>
-      <c r="AW7" s="38"/>
-      <c r="AX7" s="38"/>
-      <c r="AY7" s="38"/>
-      <c r="AZ7" s="38"/>
-      <c r="BA7" s="38"/>
-      <c r="BB7" s="38"/>
-      <c r="BC7" s="38"/>
-      <c r="BD7" s="38"/>
-      <c r="BF7" s="38" t="s">
+      <c r="AS7" s="25"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="25"/>
+      <c r="AW7" s="25"/>
+      <c r="AX7" s="25"/>
+      <c r="AY7" s="25"/>
+      <c r="AZ7" s="25"/>
+      <c r="BA7" s="25"/>
+      <c r="BB7" s="25"/>
+      <c r="BC7" s="25"/>
+      <c r="BD7" s="25"/>
+      <c r="BF7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="BG7" s="38"/>
-      <c r="BH7" s="38"/>
-      <c r="BI7" s="38"/>
-      <c r="BJ7" s="38"/>
-      <c r="BK7" s="38"/>
-      <c r="BL7" s="38"/>
-      <c r="BM7" s="38"/>
-      <c r="BN7" s="38"/>
-      <c r="BO7" s="38"/>
-      <c r="BP7" s="38"/>
-      <c r="BQ7" s="38"/>
-      <c r="BR7" s="38"/>
-      <c r="BT7" s="38" t="s">
+      <c r="BG7" s="25"/>
+      <c r="BH7" s="25"/>
+      <c r="BI7" s="25"/>
+      <c r="BJ7" s="25"/>
+      <c r="BK7" s="25"/>
+      <c r="BL7" s="25"/>
+      <c r="BM7" s="25"/>
+      <c r="BN7" s="25"/>
+      <c r="BO7" s="25"/>
+      <c r="BP7" s="25"/>
+      <c r="BQ7" s="25"/>
+      <c r="BR7" s="25"/>
+      <c r="BT7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="BU7" s="38"/>
-      <c r="BV7" s="38"/>
-      <c r="BW7" s="38"/>
-      <c r="BX7" s="38"/>
-      <c r="BY7" s="38"/>
-      <c r="BZ7" s="38"/>
-      <c r="CA7" s="38"/>
-      <c r="CB7" s="38"/>
-      <c r="CC7" s="38"/>
-      <c r="CD7" s="38"/>
-      <c r="CE7" s="38"/>
-      <c r="CF7" s="38"/>
-      <c r="CH7" s="38" t="s">
+      <c r="BU7" s="25"/>
+      <c r="BV7" s="25"/>
+      <c r="BW7" s="25"/>
+      <c r="BX7" s="25"/>
+      <c r="BY7" s="25"/>
+      <c r="BZ7" s="25"/>
+      <c r="CA7" s="25"/>
+      <c r="CB7" s="25"/>
+      <c r="CC7" s="25"/>
+      <c r="CD7" s="25"/>
+      <c r="CE7" s="25"/>
+      <c r="CF7" s="25"/>
+      <c r="CH7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="CI7" s="38"/>
-      <c r="CJ7" s="38"/>
-      <c r="CK7" s="38"/>
-      <c r="CL7" s="38"/>
-      <c r="CM7" s="38"/>
-      <c r="CN7" s="38"/>
-      <c r="CO7" s="38"/>
-      <c r="CP7" s="38"/>
-      <c r="CQ7" s="38"/>
-      <c r="CR7" s="38"/>
-      <c r="CS7" s="38"/>
-      <c r="CT7" s="38"/>
-      <c r="CV7" s="38" t="s">
+      <c r="CI7" s="25"/>
+      <c r="CJ7" s="25"/>
+      <c r="CK7" s="25"/>
+      <c r="CL7" s="25"/>
+      <c r="CM7" s="25"/>
+      <c r="CN7" s="25"/>
+      <c r="CO7" s="25"/>
+      <c r="CP7" s="25"/>
+      <c r="CQ7" s="25"/>
+      <c r="CR7" s="25"/>
+      <c r="CS7" s="25"/>
+      <c r="CT7" s="25"/>
+      <c r="CV7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="CW7" s="38"/>
-      <c r="CX7" s="38"/>
-      <c r="CY7" s="38"/>
-      <c r="CZ7" s="38"/>
-      <c r="DA7" s="38"/>
-      <c r="DB7" s="38"/>
-      <c r="DC7" s="38"/>
-      <c r="DD7" s="38"/>
-      <c r="DE7" s="38"/>
-      <c r="DF7" s="38"/>
-      <c r="DG7" s="38"/>
-      <c r="DH7" s="38"/>
-      <c r="DJ7" s="38" t="s">
+      <c r="CW7" s="25"/>
+      <c r="CX7" s="25"/>
+      <c r="CY7" s="25"/>
+      <c r="CZ7" s="25"/>
+      <c r="DA7" s="25"/>
+      <c r="DB7" s="25"/>
+      <c r="DC7" s="25"/>
+      <c r="DD7" s="25"/>
+      <c r="DE7" s="25"/>
+      <c r="DF7" s="25"/>
+      <c r="DG7" s="25"/>
+      <c r="DH7" s="25"/>
+      <c r="DJ7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="DK7" s="38"/>
-      <c r="DL7" s="38"/>
-      <c r="DM7" s="38"/>
-      <c r="DN7" s="38"/>
-      <c r="DO7" s="38"/>
-      <c r="DP7" s="38"/>
-      <c r="DQ7" s="38"/>
-      <c r="DR7" s="38"/>
-      <c r="DS7" s="38"/>
-      <c r="DT7" s="38"/>
-      <c r="DU7" s="38"/>
-      <c r="DV7" s="38"/>
+      <c r="DK7" s="25"/>
+      <c r="DL7" s="25"/>
+      <c r="DM7" s="25"/>
+      <c r="DN7" s="25"/>
+      <c r="DO7" s="25"/>
+      <c r="DP7" s="25"/>
+      <c r="DQ7" s="25"/>
+      <c r="DR7" s="25"/>
+      <c r="DS7" s="25"/>
+      <c r="DT7" s="25"/>
+      <c r="DU7" s="25"/>
+      <c r="DV7" s="25"/>
     </row>
     <row r="8" spans="1:126" x14ac:dyDescent="0.2">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="P8" s="39" t="s">
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="P8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="40" t="s">
+      <c r="Q8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="43" t="s">
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AD8" s="39" t="s">
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AD8" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="AE8" s="40" t="s">
+      <c r="AE8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="41"/>
-      <c r="AI8" s="41"/>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="43" t="s">
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AL8" s="43"/>
-      <c r="AM8" s="43"/>
-      <c r="AN8" s="43"/>
-      <c r="AO8" s="43"/>
-      <c r="AP8" s="43"/>
-      <c r="AR8" s="39" t="s">
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
+      <c r="AR8" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="AS8" s="40" t="s">
+      <c r="AS8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="AT8" s="41"/>
-      <c r="AU8" s="41"/>
-      <c r="AV8" s="41"/>
-      <c r="AW8" s="41"/>
-      <c r="AX8" s="42"/>
-      <c r="AY8" s="43" t="s">
+      <c r="AT8" s="28"/>
+      <c r="AU8" s="28"/>
+      <c r="AV8" s="28"/>
+      <c r="AW8" s="28"/>
+      <c r="AX8" s="29"/>
+      <c r="AY8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AZ8" s="43"/>
-      <c r="BA8" s="43"/>
-      <c r="BB8" s="43"/>
-      <c r="BC8" s="43"/>
-      <c r="BD8" s="43"/>
-      <c r="BF8" s="39" t="s">
+      <c r="AZ8" s="30"/>
+      <c r="BA8" s="30"/>
+      <c r="BB8" s="30"/>
+      <c r="BC8" s="30"/>
+      <c r="BD8" s="30"/>
+      <c r="BF8" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="BG8" s="40" t="s">
+      <c r="BG8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="BH8" s="41"/>
-      <c r="BI8" s="41"/>
-      <c r="BJ8" s="41"/>
-      <c r="BK8" s="41"/>
-      <c r="BL8" s="42"/>
-      <c r="BM8" s="43" t="s">
+      <c r="BH8" s="28"/>
+      <c r="BI8" s="28"/>
+      <c r="BJ8" s="28"/>
+      <c r="BK8" s="28"/>
+      <c r="BL8" s="29"/>
+      <c r="BM8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="BN8" s="43"/>
-      <c r="BO8" s="43"/>
-      <c r="BP8" s="43"/>
-      <c r="BQ8" s="43"/>
-      <c r="BR8" s="43"/>
-      <c r="BT8" s="39" t="s">
+      <c r="BN8" s="30"/>
+      <c r="BO8" s="30"/>
+      <c r="BP8" s="30"/>
+      <c r="BQ8" s="30"/>
+      <c r="BR8" s="30"/>
+      <c r="BT8" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="BU8" s="40" t="s">
+      <c r="BU8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="BV8" s="41"/>
-      <c r="BW8" s="41"/>
-      <c r="BX8" s="41"/>
-      <c r="BY8" s="41"/>
-      <c r="BZ8" s="42"/>
-      <c r="CA8" s="43" t="s">
+      <c r="BV8" s="28"/>
+      <c r="BW8" s="28"/>
+      <c r="BX8" s="28"/>
+      <c r="BY8" s="28"/>
+      <c r="BZ8" s="29"/>
+      <c r="CA8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="CB8" s="43"/>
-      <c r="CC8" s="43"/>
-      <c r="CD8" s="43"/>
-      <c r="CE8" s="43"/>
-      <c r="CF8" s="43"/>
-      <c r="CH8" s="39" t="s">
+      <c r="CB8" s="30"/>
+      <c r="CC8" s="30"/>
+      <c r="CD8" s="30"/>
+      <c r="CE8" s="30"/>
+      <c r="CF8" s="30"/>
+      <c r="CH8" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="CI8" s="40" t="s">
+      <c r="CI8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="CJ8" s="41"/>
-      <c r="CK8" s="41"/>
-      <c r="CL8" s="41"/>
-      <c r="CM8" s="41"/>
-      <c r="CN8" s="42"/>
-      <c r="CO8" s="43" t="s">
+      <c r="CJ8" s="28"/>
+      <c r="CK8" s="28"/>
+      <c r="CL8" s="28"/>
+      <c r="CM8" s="28"/>
+      <c r="CN8" s="29"/>
+      <c r="CO8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="CP8" s="43"/>
-      <c r="CQ8" s="43"/>
-      <c r="CR8" s="43"/>
-      <c r="CS8" s="43"/>
-      <c r="CT8" s="43"/>
-      <c r="CV8" s="39" t="s">
+      <c r="CP8" s="30"/>
+      <c r="CQ8" s="30"/>
+      <c r="CR8" s="30"/>
+      <c r="CS8" s="30"/>
+      <c r="CT8" s="30"/>
+      <c r="CV8" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="CW8" s="40" t="s">
+      <c r="CW8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="CX8" s="41"/>
-      <c r="CY8" s="41"/>
-      <c r="CZ8" s="41"/>
-      <c r="DA8" s="41"/>
-      <c r="DB8" s="42"/>
-      <c r="DC8" s="43" t="s">
+      <c r="CX8" s="28"/>
+      <c r="CY8" s="28"/>
+      <c r="CZ8" s="28"/>
+      <c r="DA8" s="28"/>
+      <c r="DB8" s="29"/>
+      <c r="DC8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="DD8" s="43"/>
-      <c r="DE8" s="43"/>
-      <c r="DF8" s="43"/>
-      <c r="DG8" s="43"/>
-      <c r="DH8" s="43"/>
-      <c r="DJ8" s="39" t="s">
+      <c r="DD8" s="30"/>
+      <c r="DE8" s="30"/>
+      <c r="DF8" s="30"/>
+      <c r="DG8" s="30"/>
+      <c r="DH8" s="30"/>
+      <c r="DJ8" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="DK8" s="40" t="s">
+      <c r="DK8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="DL8" s="41"/>
-      <c r="DM8" s="41"/>
-      <c r="DN8" s="41"/>
-      <c r="DO8" s="41"/>
-      <c r="DP8" s="42"/>
-      <c r="DQ8" s="43" t="s">
+      <c r="DL8" s="28"/>
+      <c r="DM8" s="28"/>
+      <c r="DN8" s="28"/>
+      <c r="DO8" s="28"/>
+      <c r="DP8" s="29"/>
+      <c r="DQ8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="DR8" s="43"/>
-      <c r="DS8" s="43"/>
-      <c r="DT8" s="43"/>
-      <c r="DU8" s="43"/>
-      <c r="DV8" s="43"/>
+      <c r="DR8" s="30"/>
+      <c r="DS8" s="30"/>
+      <c r="DT8" s="30"/>
+      <c r="DU8" s="30"/>
+      <c r="DV8" s="30"/>
     </row>
     <row r="9" spans="1:126" x14ac:dyDescent="0.2">
-      <c r="B9" s="44"/>
-      <c r="C9" s="40" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="40" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="40" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43" t="s">
+      <c r="H9" s="29"/>
+      <c r="I9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43" t="s">
+      <c r="J9" s="30"/>
+      <c r="K9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43" t="s">
+      <c r="L9" s="30"/>
+      <c r="M9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="43"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="40" t="s">
+      <c r="N9" s="30"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="41"/>
-      <c r="S9" s="40" t="s">
+      <c r="R9" s="28"/>
+      <c r="S9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="41"/>
-      <c r="U9" s="40" t="s">
+      <c r="T9" s="28"/>
+      <c r="U9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="42"/>
-      <c r="W9" s="43" t="s">
+      <c r="V9" s="29"/>
+      <c r="W9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43" t="s">
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43" t="s">
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AB9" s="43"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="40" t="s">
+      <c r="AB9" s="30"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="40" t="s">
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="40" t="s">
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AJ9" s="42"/>
-      <c r="AK9" s="43" t="s">
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AL9" s="43"/>
-      <c r="AM9" s="43" t="s">
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AN9" s="43"/>
-      <c r="AO9" s="43" t="s">
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AP9" s="43"/>
-      <c r="AR9" s="39"/>
-      <c r="AS9" s="40" t="s">
+      <c r="AP9" s="30"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AT9" s="41"/>
-      <c r="AU9" s="40" t="s">
+      <c r="AT9" s="28"/>
+      <c r="AU9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AV9" s="41"/>
-      <c r="AW9" s="40" t="s">
+      <c r="AV9" s="28"/>
+      <c r="AW9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AX9" s="42"/>
-      <c r="AY9" s="43" t="s">
+      <c r="AX9" s="29"/>
+      <c r="AY9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AZ9" s="43"/>
-      <c r="BA9" s="43" t="s">
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="BB9" s="43"/>
-      <c r="BC9" s="43" t="s">
+      <c r="BB9" s="30"/>
+      <c r="BC9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BD9" s="43"/>
-      <c r="BF9" s="39"/>
-      <c r="BG9" s="40" t="s">
+      <c r="BD9" s="30"/>
+      <c r="BF9" s="26"/>
+      <c r="BG9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="BH9" s="41"/>
-      <c r="BI9" s="40" t="s">
+      <c r="BH9" s="28"/>
+      <c r="BI9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="BJ9" s="41"/>
-      <c r="BK9" s="40" t="s">
+      <c r="BJ9" s="28"/>
+      <c r="BK9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BL9" s="42"/>
-      <c r="BM9" s="43" t="s">
+      <c r="BL9" s="29"/>
+      <c r="BM9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="BN9" s="43"/>
-      <c r="BO9" s="43" t="s">
+      <c r="BN9" s="30"/>
+      <c r="BO9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="BP9" s="43"/>
-      <c r="BQ9" s="43" t="s">
+      <c r="BP9" s="30"/>
+      <c r="BQ9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BR9" s="43"/>
-      <c r="BT9" s="39"/>
-      <c r="BU9" s="40" t="s">
+      <c r="BR9" s="30"/>
+      <c r="BT9" s="26"/>
+      <c r="BU9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="BV9" s="41"/>
-      <c r="BW9" s="40" t="s">
+      <c r="BV9" s="28"/>
+      <c r="BW9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="BX9" s="41"/>
-      <c r="BY9" s="40" t="s">
+      <c r="BX9" s="28"/>
+      <c r="BY9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BZ9" s="42"/>
-      <c r="CA9" s="43" t="s">
+      <c r="BZ9" s="29"/>
+      <c r="CA9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="CB9" s="43"/>
-      <c r="CC9" s="43" t="s">
+      <c r="CB9" s="30"/>
+      <c r="CC9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="CD9" s="43"/>
-      <c r="CE9" s="43" t="s">
+      <c r="CD9" s="30"/>
+      <c r="CE9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="CF9" s="43"/>
-      <c r="CH9" s="39"/>
-      <c r="CI9" s="40" t="s">
+      <c r="CF9" s="30"/>
+      <c r="CH9" s="26"/>
+      <c r="CI9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CJ9" s="41"/>
-      <c r="CK9" s="40" t="s">
+      <c r="CJ9" s="28"/>
+      <c r="CK9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CL9" s="41"/>
-      <c r="CM9" s="40" t="s">
+      <c r="CL9" s="28"/>
+      <c r="CM9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="CN9" s="42"/>
-      <c r="CO9" s="43" t="s">
+      <c r="CN9" s="29"/>
+      <c r="CO9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="CP9" s="43"/>
-      <c r="CQ9" s="43" t="s">
+      <c r="CP9" s="30"/>
+      <c r="CQ9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="CR9" s="43"/>
-      <c r="CS9" s="43" t="s">
+      <c r="CR9" s="30"/>
+      <c r="CS9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="CT9" s="43"/>
-      <c r="CV9" s="39"/>
-      <c r="CW9" s="40" t="s">
+      <c r="CT9" s="30"/>
+      <c r="CV9" s="26"/>
+      <c r="CW9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CX9" s="41"/>
-      <c r="CY9" s="40" t="s">
+      <c r="CX9" s="28"/>
+      <c r="CY9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CZ9" s="41"/>
-      <c r="DA9" s="40" t="s">
+      <c r="CZ9" s="28"/>
+      <c r="DA9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="DB9" s="42"/>
-      <c r="DC9" s="43" t="s">
+      <c r="DB9" s="29"/>
+      <c r="DC9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="DD9" s="43"/>
-      <c r="DE9" s="43" t="s">
+      <c r="DD9" s="30"/>
+      <c r="DE9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="DF9" s="43"/>
-      <c r="DG9" s="43" t="s">
+      <c r="DF9" s="30"/>
+      <c r="DG9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="DH9" s="43"/>
-      <c r="DJ9" s="39"/>
-      <c r="DK9" s="40" t="s">
+      <c r="DH9" s="30"/>
+      <c r="DJ9" s="26"/>
+      <c r="DK9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="DL9" s="41"/>
-      <c r="DM9" s="40" t="s">
+      <c r="DL9" s="28"/>
+      <c r="DM9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="DN9" s="41"/>
-      <c r="DO9" s="40" t="s">
+      <c r="DN9" s="28"/>
+      <c r="DO9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="DP9" s="42"/>
-      <c r="DQ9" s="43" t="s">
+      <c r="DP9" s="29"/>
+      <c r="DQ9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="DR9" s="43"/>
-      <c r="DS9" s="43" t="s">
+      <c r="DR9" s="30"/>
+      <c r="DS9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="DT9" s="43"/>
-      <c r="DU9" s="43" t="s">
+      <c r="DT9" s="30"/>
+      <c r="DU9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="DV9" s="43"/>
+      <c r="DV9" s="30"/>
     </row>
     <row r="10" spans="1:126" x14ac:dyDescent="0.2">
-      <c r="B10" s="44"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="22" t="s">
         <v>0</v>
       </c>
@@ -5062,7 +3721,7 @@
       <c r="N10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="39"/>
+      <c r="P10" s="26"/>
       <c r="Q10" s="22" t="s">
         <v>0</v>
       </c>
@@ -5099,7 +3758,7 @@
       <c r="AB10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AD10" s="39"/>
+      <c r="AD10" s="26"/>
       <c r="AE10" s="22" t="s">
         <v>0</v>
       </c>
@@ -5136,7 +3795,7 @@
       <c r="AP10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AR10" s="39"/>
+      <c r="AR10" s="26"/>
       <c r="AS10" s="22" t="s">
         <v>0</v>
       </c>
@@ -5173,7 +3832,7 @@
       <c r="BD10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BF10" s="39"/>
+      <c r="BF10" s="26"/>
       <c r="BG10" s="22" t="s">
         <v>0</v>
       </c>
@@ -5210,7 +3869,7 @@
       <c r="BR10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BT10" s="39"/>
+      <c r="BT10" s="26"/>
       <c r="BU10" s="22" t="s">
         <v>0</v>
       </c>
@@ -5247,7 +3906,7 @@
       <c r="CF10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CH10" s="39"/>
+      <c r="CH10" s="26"/>
       <c r="CI10" s="22" t="s">
         <v>0</v>
       </c>
@@ -5284,7 +3943,7 @@
       <c r="CT10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CV10" s="39"/>
+      <c r="CV10" s="26"/>
       <c r="CW10" s="22" t="s">
         <v>0</v>
       </c>
@@ -5321,7 +3980,7 @@
       <c r="DH10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="DJ10" s="39"/>
+      <c r="DJ10" s="26"/>
       <c r="DK10" s="22" t="s">
         <v>0</v>
       </c>
@@ -5364,7 +4023,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -5503,7 +4162,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -5642,7 +4301,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -6157,7 +4816,7 @@
       <c r="DU16" s="4"/>
       <c r="DV16" s="4"/>
     </row>
-    <row r="17" spans="15:126" x14ac:dyDescent="0.2">
+    <row r="17" spans="16:126" x14ac:dyDescent="0.2">
       <c r="P17" s="1" t="s">
         <v>46</v>
       </c>
@@ -6278,1288 +4937,6 @@
       <c r="DT17" s="4"/>
       <c r="DU17" s="4"/>
       <c r="DV17" s="4"/>
-    </row>
-    <row r="18" spans="15:126" x14ac:dyDescent="0.2">
-      <c r="Q18" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="R18" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE18" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF18" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="AS18" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT18" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="BG18" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="BH18" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="BU18" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="BV18" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="CI18" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="CJ18" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="CW18" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="CX18" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="DK18" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="DL18" s="26" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="15:126" x14ac:dyDescent="0.2">
-      <c r="O19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P19" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q19" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD19" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE19" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF19" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="AQ19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR19" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="AS19" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AT19" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="BE19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="BF19" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="BG19" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="BH19" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="BS19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="BT19" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="BU19" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="BV19" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="CG19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="CH19" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="CI19" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="CJ19" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="CU19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="CV19" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="CW19" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="CX19" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="DI19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="DJ19" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="DK19" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="DL19" s="29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="15:126" x14ac:dyDescent="0.2">
-      <c r="P20" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="R20" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD20" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE20" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF20" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR20" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT20" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="BF20" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="BG20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BH20" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="BT20" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="BU20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="BV20" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="CH20" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="CI20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="CJ20" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="CV20" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="CW20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="CX20" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="DJ20" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="DK20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="DL20" s="29" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="15:126" x14ac:dyDescent="0.2">
-      <c r="P21" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="R21" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD21" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE21" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF21" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR21" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS21" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT21" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF21" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="BG21" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="BH21" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="BT21" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="BU21" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="BV21" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CH21" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="CI21" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="CJ21" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="CV21" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="CW21" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="CX21" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="DJ21" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="DK21" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="DL21" s="29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="15:126" x14ac:dyDescent="0.2">
-      <c r="P22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="R22" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE22" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF22" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS22" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT22" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="BF22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="BG22" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="BH22" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="BT22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="BU22" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="BV22" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="CH22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="CI22" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="CJ22" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="CV22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="CW22" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="CX22" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="DJ22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="DK22" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL22" s="29" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="15:126" x14ac:dyDescent="0.2">
-      <c r="P23" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="R23" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD23" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF23" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR23" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="AS23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT23" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="BF23" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="BG23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BH23" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="BT23" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="BU23" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="BV23" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="CH23" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="CI23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="CJ23" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="CV23" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="CW23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="CX23" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="DJ23" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="DK23" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="DL23" s="29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="15:126" x14ac:dyDescent="0.2">
-      <c r="P24" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="R24" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AD24" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE24" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF24" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="AR24" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS24" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT24" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="BF24" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="BG24" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="BH24" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="BT24" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="BU24" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="BV24" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="CH24" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="CI24" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="CJ24" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="CV24" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="CW24" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="CX24" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="DJ24" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="DK24" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="DL24" s="29" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="15:126" x14ac:dyDescent="0.2">
-      <c r="P25" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="R25" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD25" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE25" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF25" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR25" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AS25" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT25" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="BF25" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="BG25" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="BH25" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="BT25" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="BU25" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="BV25" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="CH25" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="CI25" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="CJ25" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="CV25" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="CW25" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="CX25" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="DJ25" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="DK25" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="DL25" s="29" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="15:126" x14ac:dyDescent="0.2">
-      <c r="P26" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="R26" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD26" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE26" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF26" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR26" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS26" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT26" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="BF26" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="BG26" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="BH26" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="BT26" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="BU26" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="BV26" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="CH26" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="CI26" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="CJ26" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="CV26" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="CW26" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="CX26" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="DJ26" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="DK26" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="DL26" s="32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="15:126" x14ac:dyDescent="0.2">
-      <c r="O28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P28" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="R28" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD28" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE28" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF28" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="AQ28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AR28" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="AS28" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AT28" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="BE28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="BF28" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="BG28" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BH28" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="BS28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="BT28" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="BU28" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BV28" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="CG28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="CH28" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="CI28" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="CJ28" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="CU28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="CV28" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="CW28" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="CX28" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="DI28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="DJ28" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="DK28" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="DL28" s="29" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="15:126" x14ac:dyDescent="0.2">
-      <c r="P29" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="R29" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD29" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE29" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF29" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR29" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS29" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AT29" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="BF29" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="BG29" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BH29" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="BT29" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="BU29" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BV29" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="CH29" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="CI29" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="CJ29" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="CV29" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="CW29" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="CX29" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="DJ29" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="DK29" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="DL29" s="29" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="15:126" x14ac:dyDescent="0.2">
-      <c r="P30" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="R30" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD30" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE30" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AF30" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="AR30" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS30" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="AT30" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="BF30" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="BG30" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="BH30" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="BT30" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="BU30" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="BV30" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="CH30" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="CI30" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="CJ30" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="CV30" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="CW30" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="CX30" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="DJ30" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="DK30" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="DL30" s="29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="15:126" x14ac:dyDescent="0.2">
-      <c r="P31" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="R31" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD31" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE31" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AF31" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="AR31" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="AS31" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AT31" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="BF31" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="BG31" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="BH31" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="BT31" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="BU31" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="BV31" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="CH31" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="CI31" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="CJ31" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="CV31" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="CW31" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="CX31" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="DJ31" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="DK31" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="DL31" s="29" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="32" spans="15:126" x14ac:dyDescent="0.2">
-      <c r="P32" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="R32" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD32" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE32" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF32" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="AR32" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="AS32" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT32" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="BF32" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="BG32" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="BH32" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="BT32" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="BU32" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="BV32" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="CH32" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="CI32" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="CJ32" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="CV32" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="CW32" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="CX32" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="DJ32" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="DK32" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="DL32" s="29" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="16:116" x14ac:dyDescent="0.2">
-      <c r="P33" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="R33" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD33" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE33" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AF33" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="AR33" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS33" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AT33" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="BF33" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="BG33" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="BH33" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="BT33" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="BU33" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="BV33" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="CH33" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="CI33" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="CJ33" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="CV33" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="CW33" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="CX33" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="DJ33" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="DK33" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="DL33" s="29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="16:116" x14ac:dyDescent="0.2">
-      <c r="P34" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="R34" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD34" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE34" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF34" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="AR34" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="AS34" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT34" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="BF34" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="BG34" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="BH34" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="BT34" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="BU34" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="BV34" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="CH34" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="CI34" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="CJ34" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="CV34" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="CW34" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="CX34" s="32" t="s">
-        <v>172</v>
-      </c>
-      <c r="DJ34" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="DK34" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="DL34" s="29" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="35" spans="16:116" x14ac:dyDescent="0.2">
-      <c r="P35" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q35" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="R35" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD35" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE35" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF35" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="AR35" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS35" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AT35" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="BF35" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="BG35" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="BH35" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="BT35" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="BU35" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="BV35" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="CH35" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="CI35" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="CJ35" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="CV35" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="CW35" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="CX35" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="DJ35" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="DK35" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL35" s="32" t="s">
-        <v>173</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="90">
@@ -7661,10 +5038,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CT29"/>
+  <dimension ref="A1:CT21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7872,429 +5249,429 @@
     </row>
     <row r="7" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="P7" s="38" t="s">
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="P7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="38"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AD7" s="38" t="s">
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AD7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
-      <c r="AR7" s="38" t="s">
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25"/>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="25"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="25"/>
+      <c r="AR7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="AS7" s="38"/>
-      <c r="AT7" s="38"/>
-      <c r="AU7" s="38"/>
-      <c r="AV7" s="38"/>
-      <c r="AW7" s="38"/>
-      <c r="AX7" s="38"/>
-      <c r="AY7" s="38"/>
-      <c r="AZ7" s="38"/>
-      <c r="BA7" s="38"/>
-      <c r="BB7" s="38"/>
-      <c r="BC7" s="38"/>
-      <c r="BD7" s="38"/>
-      <c r="BF7" s="38" t="s">
+      <c r="AS7" s="25"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="25"/>
+      <c r="AW7" s="25"/>
+      <c r="AX7" s="25"/>
+      <c r="AY7" s="25"/>
+      <c r="AZ7" s="25"/>
+      <c r="BA7" s="25"/>
+      <c r="BB7" s="25"/>
+      <c r="BC7" s="25"/>
+      <c r="BD7" s="25"/>
+      <c r="BF7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="BG7" s="38"/>
-      <c r="BH7" s="38"/>
-      <c r="BI7" s="38"/>
-      <c r="BJ7" s="38"/>
-      <c r="BK7" s="38"/>
-      <c r="BL7" s="38"/>
-      <c r="BM7" s="38"/>
-      <c r="BN7" s="38"/>
-      <c r="BO7" s="38"/>
-      <c r="BP7" s="38"/>
-      <c r="BQ7" s="38"/>
-      <c r="BR7" s="38"/>
-      <c r="BT7" s="38" t="s">
+      <c r="BG7" s="25"/>
+      <c r="BH7" s="25"/>
+      <c r="BI7" s="25"/>
+      <c r="BJ7" s="25"/>
+      <c r="BK7" s="25"/>
+      <c r="BL7" s="25"/>
+      <c r="BM7" s="25"/>
+      <c r="BN7" s="25"/>
+      <c r="BO7" s="25"/>
+      <c r="BP7" s="25"/>
+      <c r="BQ7" s="25"/>
+      <c r="BR7" s="25"/>
+      <c r="BT7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="BU7" s="38"/>
-      <c r="BV7" s="38"/>
-      <c r="BW7" s="38"/>
-      <c r="BX7" s="38"/>
-      <c r="BY7" s="38"/>
-      <c r="BZ7" s="38"/>
-      <c r="CA7" s="38"/>
-      <c r="CB7" s="38"/>
-      <c r="CC7" s="38"/>
-      <c r="CD7" s="38"/>
-      <c r="CE7" s="38"/>
-      <c r="CF7" s="38"/>
-      <c r="CH7" s="38" t="s">
+      <c r="BU7" s="25"/>
+      <c r="BV7" s="25"/>
+      <c r="BW7" s="25"/>
+      <c r="BX7" s="25"/>
+      <c r="BY7" s="25"/>
+      <c r="BZ7" s="25"/>
+      <c r="CA7" s="25"/>
+      <c r="CB7" s="25"/>
+      <c r="CC7" s="25"/>
+      <c r="CD7" s="25"/>
+      <c r="CE7" s="25"/>
+      <c r="CF7" s="25"/>
+      <c r="CH7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="CI7" s="38"/>
-      <c r="CJ7" s="38"/>
-      <c r="CK7" s="38"/>
-      <c r="CL7" s="38"/>
-      <c r="CM7" s="38"/>
-      <c r="CN7" s="38"/>
-      <c r="CO7" s="38"/>
-      <c r="CP7" s="38"/>
-      <c r="CQ7" s="38"/>
-      <c r="CR7" s="38"/>
-      <c r="CS7" s="38"/>
-      <c r="CT7" s="38"/>
+      <c r="CI7" s="25"/>
+      <c r="CJ7" s="25"/>
+      <c r="CK7" s="25"/>
+      <c r="CL7" s="25"/>
+      <c r="CM7" s="25"/>
+      <c r="CN7" s="25"/>
+      <c r="CO7" s="25"/>
+      <c r="CP7" s="25"/>
+      <c r="CQ7" s="25"/>
+      <c r="CR7" s="25"/>
+      <c r="CS7" s="25"/>
+      <c r="CT7" s="25"/>
     </row>
     <row r="8" spans="1:98" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="P8" s="39" t="s">
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="P8" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="40" t="s">
+      <c r="Q8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="43" t="s">
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AD8" s="39" t="s">
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AD8" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="AE8" s="40" t="s">
+      <c r="AE8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="41"/>
-      <c r="AI8" s="41"/>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="43" t="s">
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AL8" s="43"/>
-      <c r="AM8" s="43"/>
-      <c r="AN8" s="43"/>
-      <c r="AO8" s="43"/>
-      <c r="AP8" s="43"/>
-      <c r="AR8" s="39" t="s">
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
+      <c r="AR8" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="AS8" s="40" t="s">
+      <c r="AS8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="AT8" s="41"/>
-      <c r="AU8" s="41"/>
-      <c r="AV8" s="41"/>
-      <c r="AW8" s="41"/>
-      <c r="AX8" s="42"/>
-      <c r="AY8" s="43" t="s">
+      <c r="AT8" s="28"/>
+      <c r="AU8" s="28"/>
+      <c r="AV8" s="28"/>
+      <c r="AW8" s="28"/>
+      <c r="AX8" s="29"/>
+      <c r="AY8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AZ8" s="43"/>
-      <c r="BA8" s="43"/>
-      <c r="BB8" s="43"/>
-      <c r="BC8" s="43"/>
-      <c r="BD8" s="43"/>
-      <c r="BF8" s="39" t="s">
+      <c r="AZ8" s="30"/>
+      <c r="BA8" s="30"/>
+      <c r="BB8" s="30"/>
+      <c r="BC8" s="30"/>
+      <c r="BD8" s="30"/>
+      <c r="BF8" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="BG8" s="40" t="s">
+      <c r="BG8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="BH8" s="41"/>
-      <c r="BI8" s="41"/>
-      <c r="BJ8" s="41"/>
-      <c r="BK8" s="41"/>
-      <c r="BL8" s="42"/>
-      <c r="BM8" s="43" t="s">
+      <c r="BH8" s="28"/>
+      <c r="BI8" s="28"/>
+      <c r="BJ8" s="28"/>
+      <c r="BK8" s="28"/>
+      <c r="BL8" s="29"/>
+      <c r="BM8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="BN8" s="43"/>
-      <c r="BO8" s="43"/>
-      <c r="BP8" s="43"/>
-      <c r="BQ8" s="43"/>
-      <c r="BR8" s="43"/>
-      <c r="BT8" s="39" t="s">
+      <c r="BN8" s="30"/>
+      <c r="BO8" s="30"/>
+      <c r="BP8" s="30"/>
+      <c r="BQ8" s="30"/>
+      <c r="BR8" s="30"/>
+      <c r="BT8" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="BU8" s="40" t="s">
+      <c r="BU8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="BV8" s="41"/>
-      <c r="BW8" s="41"/>
-      <c r="BX8" s="41"/>
-      <c r="BY8" s="41"/>
-      <c r="BZ8" s="42"/>
-      <c r="CA8" s="43" t="s">
+      <c r="BV8" s="28"/>
+      <c r="BW8" s="28"/>
+      <c r="BX8" s="28"/>
+      <c r="BY8" s="28"/>
+      <c r="BZ8" s="29"/>
+      <c r="CA8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="CB8" s="43"/>
-      <c r="CC8" s="43"/>
-      <c r="CD8" s="43"/>
-      <c r="CE8" s="43"/>
-      <c r="CF8" s="43"/>
-      <c r="CH8" s="39" t="s">
+      <c r="CB8" s="30"/>
+      <c r="CC8" s="30"/>
+      <c r="CD8" s="30"/>
+      <c r="CE8" s="30"/>
+      <c r="CF8" s="30"/>
+      <c r="CH8" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="40" t="s">
+      <c r="CI8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="CJ8" s="41"/>
-      <c r="CK8" s="41"/>
-      <c r="CL8" s="41"/>
-      <c r="CM8" s="41"/>
-      <c r="CN8" s="42"/>
-      <c r="CO8" s="43" t="s">
+      <c r="CJ8" s="28"/>
+      <c r="CK8" s="28"/>
+      <c r="CL8" s="28"/>
+      <c r="CM8" s="28"/>
+      <c r="CN8" s="29"/>
+      <c r="CO8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="CP8" s="43"/>
-      <c r="CQ8" s="43"/>
-      <c r="CR8" s="43"/>
-      <c r="CS8" s="43"/>
-      <c r="CT8" s="43"/>
+      <c r="CP8" s="30"/>
+      <c r="CQ8" s="30"/>
+      <c r="CR8" s="30"/>
+      <c r="CS8" s="30"/>
+      <c r="CT8" s="30"/>
     </row>
     <row r="9" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="40" t="s">
+      <c r="B9" s="31"/>
+      <c r="C9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="40" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="40" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43" t="s">
+      <c r="H9" s="29"/>
+      <c r="I9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43" t="s">
+      <c r="J9" s="30"/>
+      <c r="K9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43" t="s">
+      <c r="L9" s="30"/>
+      <c r="M9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="43"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="40" t="s">
+      <c r="N9" s="30"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="41"/>
-      <c r="S9" s="40" t="s">
+      <c r="R9" s="28"/>
+      <c r="S9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="41"/>
-      <c r="U9" s="40" t="s">
+      <c r="T9" s="28"/>
+      <c r="U9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="42"/>
-      <c r="W9" s="43" t="s">
+      <c r="V9" s="29"/>
+      <c r="W9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43" t="s">
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43" t="s">
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AB9" s="43"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="40" t="s">
+      <c r="AB9" s="30"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="40" t="s">
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="40" t="s">
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AJ9" s="42"/>
-      <c r="AK9" s="43" t="s">
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AL9" s="43"/>
-      <c r="AM9" s="43" t="s">
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AN9" s="43"/>
-      <c r="AO9" s="43" t="s">
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AP9" s="43"/>
-      <c r="AR9" s="39"/>
-      <c r="AS9" s="40" t="s">
+      <c r="AP9" s="30"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AT9" s="41"/>
-      <c r="AU9" s="40" t="s">
+      <c r="AT9" s="28"/>
+      <c r="AU9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AV9" s="41"/>
-      <c r="AW9" s="40" t="s">
+      <c r="AV9" s="28"/>
+      <c r="AW9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AX9" s="42"/>
-      <c r="AY9" s="43" t="s">
+      <c r="AX9" s="29"/>
+      <c r="AY9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AZ9" s="43"/>
-      <c r="BA9" s="43" t="s">
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="BB9" s="43"/>
-      <c r="BC9" s="43" t="s">
+      <c r="BB9" s="30"/>
+      <c r="BC9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BD9" s="43"/>
-      <c r="BF9" s="39"/>
-      <c r="BG9" s="40" t="s">
+      <c r="BD9" s="30"/>
+      <c r="BF9" s="26"/>
+      <c r="BG9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="BH9" s="41"/>
-      <c r="BI9" s="40" t="s">
+      <c r="BH9" s="28"/>
+      <c r="BI9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="BJ9" s="41"/>
-      <c r="BK9" s="40" t="s">
+      <c r="BJ9" s="28"/>
+      <c r="BK9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BL9" s="42"/>
-      <c r="BM9" s="43" t="s">
+      <c r="BL9" s="29"/>
+      <c r="BM9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="BN9" s="43"/>
-      <c r="BO9" s="43" t="s">
+      <c r="BN9" s="30"/>
+      <c r="BO9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="BP9" s="43"/>
-      <c r="BQ9" s="43" t="s">
+      <c r="BP9" s="30"/>
+      <c r="BQ9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BR9" s="43"/>
-      <c r="BT9" s="39"/>
-      <c r="BU9" s="40" t="s">
+      <c r="BR9" s="30"/>
+      <c r="BT9" s="26"/>
+      <c r="BU9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="BV9" s="41"/>
-      <c r="BW9" s="40" t="s">
+      <c r="BV9" s="28"/>
+      <c r="BW9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="BX9" s="41"/>
-      <c r="BY9" s="40" t="s">
+      <c r="BX9" s="28"/>
+      <c r="BY9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BZ9" s="42"/>
-      <c r="CA9" s="43" t="s">
+      <c r="BZ9" s="29"/>
+      <c r="CA9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="CB9" s="43"/>
-      <c r="CC9" s="43" t="s">
+      <c r="CB9" s="30"/>
+      <c r="CC9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="CD9" s="43"/>
-      <c r="CE9" s="43" t="s">
+      <c r="CD9" s="30"/>
+      <c r="CE9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="CF9" s="43"/>
-      <c r="CH9" s="39"/>
-      <c r="CI9" s="40" t="s">
+      <c r="CF9" s="30"/>
+      <c r="CH9" s="26"/>
+      <c r="CI9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CJ9" s="41"/>
-      <c r="CK9" s="40" t="s">
+      <c r="CJ9" s="28"/>
+      <c r="CK9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CL9" s="41"/>
-      <c r="CM9" s="40" t="s">
+      <c r="CL9" s="28"/>
+      <c r="CM9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="CN9" s="42"/>
-      <c r="CO9" s="43" t="s">
+      <c r="CN9" s="29"/>
+      <c r="CO9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="CP9" s="43"/>
-      <c r="CQ9" s="43" t="s">
+      <c r="CP9" s="30"/>
+      <c r="CQ9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="CR9" s="43"/>
-      <c r="CS9" s="43" t="s">
+      <c r="CR9" s="30"/>
+      <c r="CS9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="CT9" s="43"/>
+      <c r="CT9" s="30"/>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="44"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="22" t="s">
         <v>0</v>
       </c>
@@ -8331,7 +5708,7 @@
       <c r="N10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="39"/>
+      <c r="P10" s="26"/>
       <c r="Q10" s="24" t="s">
         <v>0</v>
       </c>
@@ -8368,7 +5745,7 @@
       <c r="AB10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AD10" s="39"/>
+      <c r="AD10" s="26"/>
       <c r="AE10" s="24" t="s">
         <v>0</v>
       </c>
@@ -8405,7 +5782,7 @@
       <c r="AP10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AR10" s="39"/>
+      <c r="AR10" s="26"/>
       <c r="AS10" s="24" t="s">
         <v>0</v>
       </c>
@@ -8442,7 +5819,7 @@
       <c r="BD10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BF10" s="39"/>
+      <c r="BF10" s="26"/>
       <c r="BG10" s="24" t="s">
         <v>0</v>
       </c>
@@ -8479,7 +5856,7 @@
       <c r="BR10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BT10" s="39"/>
+      <c r="BT10" s="26"/>
       <c r="BU10" s="24" t="s">
         <v>0</v>
       </c>
@@ -8516,7 +5893,7 @@
       <c r="CF10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CH10" s="39"/>
+      <c r="CH10" s="26"/>
       <c r="CI10" s="24" t="s">
         <v>0</v>
       </c>
@@ -8560,7 +5937,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -8670,7 +6047,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -8780,7 +6157,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -9084,803 +6461,14 @@
       <c r="CS15" s="4"/>
       <c r="CT15" s="4"/>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="P16" s="25"/>
-      <c r="Q16" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="R16" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AE16" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF16" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="AS16" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT16" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="BG16" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="BH16" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="BU16" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="BV16" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="CI16" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="CJ16" s="26" t="s">
-        <v>143</v>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="17" spans="15:88" x14ac:dyDescent="0.2">
-      <c r="O17" t="s">
-        <v>18</v>
-      </c>
-      <c r="P17" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q17" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="R17" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD17" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE17" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF17" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="AQ17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR17" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS17" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT17" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="BF17" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG17" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="BH17" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="BS17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="BT17" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="BU17" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="BV17" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="CG17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="CH17" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="CI17" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="CJ17" s="33" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="15:88" x14ac:dyDescent="0.2">
-      <c r="P18" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q18" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="R18" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE18" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF18" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS18" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT18" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="BE18" s="3"/>
-      <c r="BF18" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG18" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="BH18" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="BS18" s="3"/>
-      <c r="BT18" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="BU18" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="BV18" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="CG18" s="3"/>
-      <c r="CH18" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="CI18" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="CJ18" s="33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="15:88" x14ac:dyDescent="0.2">
-      <c r="P19" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q19" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="R19" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE19" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF19" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="AS19" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT19" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="BE19" s="3"/>
-      <c r="BF19" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="BG19" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="BH19" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="BS19" s="3"/>
-      <c r="BT19" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="BU19" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="BV19" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="CG19" s="3"/>
-      <c r="CH19" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="CI19" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="CJ19" s="33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="15:88" x14ac:dyDescent="0.2">
-      <c r="P20" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q20" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="R20" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE20" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF20" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS20" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="AT20" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="BE20" s="3"/>
-      <c r="BF20" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="BG20" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="BH20" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="BS20" s="3"/>
-      <c r="BT20" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="BU20" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="BV20" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="CG20" s="3"/>
-      <c r="CH20" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="CI20" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="CJ20" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="15:88" x14ac:dyDescent="0.2">
-      <c r="P21" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q21" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="R21" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE21" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF21" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS21" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT21" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="BE21" s="3"/>
-      <c r="BF21" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="BG21" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="BH21" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="BS21" s="3"/>
-      <c r="BT21" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="BU21" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="BV21" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="CG21" s="3"/>
-      <c r="CH21" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="CI21" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="CJ21" s="33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="15:88" x14ac:dyDescent="0.2">
-      <c r="P22" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q22" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="R22" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE22" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF22" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS22" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT22" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="BE22" s="3"/>
-      <c r="BF22" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG22" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="BH22" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="BS22" s="3"/>
-      <c r="BT22" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU22" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="BV22" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="CG22" s="3"/>
-      <c r="CH22" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="CI22" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="CJ22" s="26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="15:88" x14ac:dyDescent="0.2">
-      <c r="AC23" s="3"/>
-      <c r="AQ23" s="3"/>
-      <c r="BE23" s="3"/>
-      <c r="BS23" s="3"/>
-      <c r="CG23" s="3"/>
-    </row>
-    <row r="24" spans="15:88" x14ac:dyDescent="0.2">
-      <c r="O24" t="s">
-        <v>20</v>
-      </c>
-      <c r="P24" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q24" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="R24" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD24" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE24" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF24" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AR24" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS24" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT24" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="BE24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="BF24" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG24" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BH24" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="BS24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="BT24" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="BU24" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BV24" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="CG24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="CH24" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="CI24" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CJ24" s="33" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" spans="15:88" x14ac:dyDescent="0.2">
-      <c r="P25" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="R25" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD25" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE25" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF25" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="AR25" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS25" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AT25" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="BF25" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG25" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BH25" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="BT25" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="BU25" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="BV25" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="CH25" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="CI25" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="CJ25" s="33" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" spans="15:88" x14ac:dyDescent="0.2">
-      <c r="P26" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="R26" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD26" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF26" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="AR26" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="AS26" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT26" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="BF26" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="BG26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="BH26" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="BT26" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="BU26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="BV26" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="CH26" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="CI26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="CJ26" s="33" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="15:88" x14ac:dyDescent="0.2">
-      <c r="P27" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="R27" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD27" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE27" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="AF27" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="AR27" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS27" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT27" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="BF27" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="BG27" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="BH27" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="BT27" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="BU27" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="BV27" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="CH27" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="CI27" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="CJ27" s="33" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="15:88" x14ac:dyDescent="0.2">
-      <c r="P28" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="R28" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD28" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE28" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF28" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR28" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS28" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AT28" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="BF28" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="BG28" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="BH28" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="BT28" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="BU28" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="BV28" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="CH28" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="CI28" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="CJ28" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="15:88" x14ac:dyDescent="0.2">
-      <c r="P29" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="R29" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD29" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE29" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AF29" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="AR29" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS29" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AT29" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="BF29" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG29" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="BH29" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="BT29" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU29" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="BV29" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="CH29" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="CI29" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="CJ29" s="37" t="s">
-        <v>186</v>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/storage/excel/summary13.xlsx
+++ b/storage/excel/summary13.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="99">
   <si>
     <t>จำนวน</t>
   </si>
@@ -318,12 +318,6 @@
   </si>
   <si>
     <t>no_ra908(265)</t>
-  </si>
-  <si>
-    <t>sadfsadf</t>
-  </si>
-  <si>
-    <t>fasdfsdf</t>
   </si>
 </sst>
 </file>
@@ -546,9 +540,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -560,6 +551,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1344,357 +1338,357 @@
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="P8" s="26" t="s">
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="P8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="27" t="s">
+      <c r="Q8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="30" t="s">
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AD8" s="26" t="s">
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AD8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AE8" s="27" t="s">
+      <c r="AE8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="29"/>
-      <c r="AK8" s="30" t="s">
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AL8" s="30"/>
-      <c r="AM8" s="30"/>
-      <c r="AN8" s="30"/>
-      <c r="AO8" s="30"/>
-      <c r="AP8" s="30"/>
-      <c r="AR8" s="26" t="s">
+      <c r="AL8" s="29"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="29"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="29"/>
+      <c r="AR8" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="AS8" s="27" t="s">
+      <c r="AS8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="AT8" s="28"/>
-      <c r="AU8" s="28"/>
-      <c r="AV8" s="28"/>
-      <c r="AW8" s="28"/>
-      <c r="AX8" s="29"/>
-      <c r="AY8" s="30" t="s">
+      <c r="AT8" s="27"/>
+      <c r="AU8" s="27"/>
+      <c r="AV8" s="27"/>
+      <c r="AW8" s="27"/>
+      <c r="AX8" s="28"/>
+      <c r="AY8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AZ8" s="30"/>
-      <c r="BA8" s="30"/>
-      <c r="BB8" s="30"/>
-      <c r="BC8" s="30"/>
-      <c r="BD8" s="30"/>
-      <c r="BF8" s="26" t="s">
+      <c r="AZ8" s="29"/>
+      <c r="BA8" s="29"/>
+      <c r="BB8" s="29"/>
+      <c r="BC8" s="29"/>
+      <c r="BD8" s="29"/>
+      <c r="BF8" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="BG8" s="27" t="s">
+      <c r="BG8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="BH8" s="28"/>
-      <c r="BI8" s="28"/>
-      <c r="BJ8" s="28"/>
-      <c r="BK8" s="28"/>
-      <c r="BL8" s="29"/>
-      <c r="BM8" s="30" t="s">
+      <c r="BH8" s="27"/>
+      <c r="BI8" s="27"/>
+      <c r="BJ8" s="27"/>
+      <c r="BK8" s="27"/>
+      <c r="BL8" s="28"/>
+      <c r="BM8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="BN8" s="30"/>
-      <c r="BO8" s="30"/>
-      <c r="BP8" s="30"/>
-      <c r="BQ8" s="30"/>
-      <c r="BR8" s="30"/>
-      <c r="BT8" s="26" t="s">
+      <c r="BN8" s="29"/>
+      <c r="BO8" s="29"/>
+      <c r="BP8" s="29"/>
+      <c r="BQ8" s="29"/>
+      <c r="BR8" s="29"/>
+      <c r="BT8" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="BU8" s="27" t="s">
+      <c r="BU8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="BV8" s="28"/>
-      <c r="BW8" s="28"/>
-      <c r="BX8" s="28"/>
-      <c r="BY8" s="28"/>
-      <c r="BZ8" s="29"/>
-      <c r="CA8" s="30" t="s">
+      <c r="BV8" s="27"/>
+      <c r="BW8" s="27"/>
+      <c r="BX8" s="27"/>
+      <c r="BY8" s="27"/>
+      <c r="BZ8" s="28"/>
+      <c r="CA8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="CB8" s="30"/>
-      <c r="CC8" s="30"/>
-      <c r="CD8" s="30"/>
-      <c r="CE8" s="30"/>
-      <c r="CF8" s="30"/>
-      <c r="CH8" s="26" t="s">
+      <c r="CB8" s="29"/>
+      <c r="CC8" s="29"/>
+      <c r="CD8" s="29"/>
+      <c r="CE8" s="29"/>
+      <c r="CF8" s="29"/>
+      <c r="CH8" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="CI8" s="27" t="s">
+      <c r="CI8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="CJ8" s="28"/>
-      <c r="CK8" s="28"/>
-      <c r="CL8" s="28"/>
-      <c r="CM8" s="28"/>
-      <c r="CN8" s="29"/>
-      <c r="CO8" s="30" t="s">
+      <c r="CJ8" s="27"/>
+      <c r="CK8" s="27"/>
+      <c r="CL8" s="27"/>
+      <c r="CM8" s="27"/>
+      <c r="CN8" s="28"/>
+      <c r="CO8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="CP8" s="30"/>
-      <c r="CQ8" s="30"/>
-      <c r="CR8" s="30"/>
-      <c r="CS8" s="30"/>
-      <c r="CT8" s="30"/>
-      <c r="CV8" s="26" t="s">
+      <c r="CP8" s="29"/>
+      <c r="CQ8" s="29"/>
+      <c r="CR8" s="29"/>
+      <c r="CS8" s="29"/>
+      <c r="CT8" s="29"/>
+      <c r="CV8" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="CW8" s="27" t="s">
+      <c r="CW8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="CX8" s="28"/>
-      <c r="CY8" s="28"/>
-      <c r="CZ8" s="28"/>
-      <c r="DA8" s="28"/>
-      <c r="DB8" s="29"/>
-      <c r="DC8" s="30" t="s">
+      <c r="CX8" s="27"/>
+      <c r="CY8" s="27"/>
+      <c r="CZ8" s="27"/>
+      <c r="DA8" s="27"/>
+      <c r="DB8" s="28"/>
+      <c r="DC8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="DD8" s="30"/>
-      <c r="DE8" s="30"/>
-      <c r="DF8" s="30"/>
-      <c r="DG8" s="30"/>
-      <c r="DH8" s="30"/>
+      <c r="DD8" s="29"/>
+      <c r="DE8" s="29"/>
+      <c r="DF8" s="29"/>
+      <c r="DG8" s="29"/>
+      <c r="DH8" s="29"/>
     </row>
     <row r="9" spans="1:112" x14ac:dyDescent="0.2">
       <c r="B9" s="31"/>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="27" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="27" t="s">
+      <c r="F9" s="27"/>
+      <c r="G9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30" t="s">
+      <c r="H9" s="28"/>
+      <c r="I9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30" t="s">
+      <c r="J9" s="29"/>
+      <c r="K9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30" t="s">
+      <c r="L9" s="29"/>
+      <c r="M9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="30"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="27" t="s">
+      <c r="N9" s="29"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="27" t="s">
+      <c r="R9" s="27"/>
+      <c r="S9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="28"/>
-      <c r="U9" s="27" t="s">
+      <c r="T9" s="27"/>
+      <c r="U9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="29"/>
-      <c r="W9" s="30" t="s">
+      <c r="V9" s="28"/>
+      <c r="W9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30" t="s">
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30" t="s">
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AB9" s="30"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="27" t="s">
+      <c r="AB9" s="29"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="27" t="s">
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="27" t="s">
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="30" t="s">
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AL9" s="30"/>
-      <c r="AM9" s="30" t="s">
+      <c r="AL9" s="29"/>
+      <c r="AM9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30" t="s">
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AP9" s="30"/>
-      <c r="AR9" s="26"/>
-      <c r="AS9" s="27" t="s">
+      <c r="AP9" s="29"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AT9" s="28"/>
-      <c r="AU9" s="27" t="s">
+      <c r="AT9" s="27"/>
+      <c r="AU9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AV9" s="28"/>
-      <c r="AW9" s="27" t="s">
+      <c r="AV9" s="27"/>
+      <c r="AW9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AX9" s="29"/>
-      <c r="AY9" s="30" t="s">
+      <c r="AX9" s="28"/>
+      <c r="AY9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AZ9" s="30"/>
-      <c r="BA9" s="30" t="s">
+      <c r="AZ9" s="29"/>
+      <c r="BA9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="BB9" s="30"/>
-      <c r="BC9" s="30" t="s">
+      <c r="BB9" s="29"/>
+      <c r="BC9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="BD9" s="30"/>
-      <c r="BF9" s="26"/>
-      <c r="BG9" s="27" t="s">
+      <c r="BD9" s="29"/>
+      <c r="BF9" s="30"/>
+      <c r="BG9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="BH9" s="28"/>
-      <c r="BI9" s="27" t="s">
+      <c r="BH9" s="27"/>
+      <c r="BI9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BJ9" s="28"/>
-      <c r="BK9" s="27" t="s">
+      <c r="BJ9" s="27"/>
+      <c r="BK9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="BL9" s="29"/>
-      <c r="BM9" s="30" t="s">
+      <c r="BL9" s="28"/>
+      <c r="BM9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="BN9" s="30"/>
-      <c r="BO9" s="30" t="s">
+      <c r="BN9" s="29"/>
+      <c r="BO9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="BP9" s="30"/>
-      <c r="BQ9" s="30" t="s">
+      <c r="BP9" s="29"/>
+      <c r="BQ9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="BR9" s="30"/>
-      <c r="BT9" s="26"/>
-      <c r="BU9" s="27" t="s">
+      <c r="BR9" s="29"/>
+      <c r="BT9" s="30"/>
+      <c r="BU9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="BV9" s="28"/>
-      <c r="BW9" s="27" t="s">
+      <c r="BV9" s="27"/>
+      <c r="BW9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BX9" s="28"/>
-      <c r="BY9" s="27" t="s">
+      <c r="BX9" s="27"/>
+      <c r="BY9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="BZ9" s="29"/>
-      <c r="CA9" s="30" t="s">
+      <c r="BZ9" s="28"/>
+      <c r="CA9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CB9" s="30"/>
-      <c r="CC9" s="30" t="s">
+      <c r="CB9" s="29"/>
+      <c r="CC9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CD9" s="30"/>
-      <c r="CE9" s="30" t="s">
+      <c r="CD9" s="29"/>
+      <c r="CE9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="CF9" s="30"/>
-      <c r="CH9" s="26"/>
-      <c r="CI9" s="27" t="s">
+      <c r="CF9" s="29"/>
+      <c r="CH9" s="30"/>
+      <c r="CI9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CJ9" s="28"/>
-      <c r="CK9" s="27" t="s">
+      <c r="CJ9" s="27"/>
+      <c r="CK9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="CL9" s="28"/>
-      <c r="CM9" s="27" t="s">
+      <c r="CL9" s="27"/>
+      <c r="CM9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="CN9" s="29"/>
-      <c r="CO9" s="30" t="s">
+      <c r="CN9" s="28"/>
+      <c r="CO9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CP9" s="30"/>
-      <c r="CQ9" s="30" t="s">
+      <c r="CP9" s="29"/>
+      <c r="CQ9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CR9" s="30"/>
-      <c r="CS9" s="30" t="s">
+      <c r="CR9" s="29"/>
+      <c r="CS9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="CT9" s="30"/>
-      <c r="CV9" s="26"/>
-      <c r="CW9" s="27" t="s">
+      <c r="CT9" s="29"/>
+      <c r="CV9" s="30"/>
+      <c r="CW9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CX9" s="28"/>
-      <c r="CY9" s="27" t="s">
+      <c r="CX9" s="27"/>
+      <c r="CY9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="CZ9" s="28"/>
-      <c r="DA9" s="27" t="s">
+      <c r="CZ9" s="27"/>
+      <c r="DA9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="DB9" s="29"/>
-      <c r="DC9" s="30" t="s">
+      <c r="DB9" s="28"/>
+      <c r="DC9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="DD9" s="30"/>
-      <c r="DE9" s="30" t="s">
+      <c r="DD9" s="29"/>
+      <c r="DE9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="DF9" s="30"/>
-      <c r="DG9" s="30" t="s">
+      <c r="DF9" s="29"/>
+      <c r="DG9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="DH9" s="30"/>
+      <c r="DH9" s="29"/>
     </row>
     <row r="10" spans="1:112" x14ac:dyDescent="0.2">
       <c r="B10" s="31"/>
@@ -1734,7 +1728,7 @@
       <c r="N10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="26"/>
+      <c r="P10" s="30"/>
       <c r="Q10" s="22" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1765,7 @@
       <c r="AB10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AD10" s="26"/>
+      <c r="AD10" s="30"/>
       <c r="AE10" s="22" t="s">
         <v>0</v>
       </c>
@@ -1808,7 +1802,7 @@
       <c r="AP10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AR10" s="26"/>
+      <c r="AR10" s="30"/>
       <c r="AS10" s="22" t="s">
         <v>0</v>
       </c>
@@ -1845,7 +1839,7 @@
       <c r="BD10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BF10" s="26"/>
+      <c r="BF10" s="30"/>
       <c r="BG10" s="22" t="s">
         <v>0</v>
       </c>
@@ -1882,7 +1876,7 @@
       <c r="BR10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BT10" s="26"/>
+      <c r="BT10" s="30"/>
       <c r="BU10" s="22" t="s">
         <v>0</v>
       </c>
@@ -1919,7 +1913,7 @@
       <c r="CF10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CH10" s="26"/>
+      <c r="CH10" s="30"/>
       <c r="CI10" s="22" t="s">
         <v>0</v>
       </c>
@@ -1956,7 +1950,7 @@
       <c r="CT10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CV10" s="26"/>
+      <c r="CV10" s="30"/>
       <c r="CW10" s="22" t="s">
         <v>0</v>
       </c>
@@ -2716,6 +2710,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="CV7:DH7"/>
+    <mergeCell ref="CV8:CV10"/>
+    <mergeCell ref="CW8:DB8"/>
+    <mergeCell ref="DC8:DH8"/>
+    <mergeCell ref="CW9:CX9"/>
+    <mergeCell ref="CY9:CZ9"/>
+    <mergeCell ref="DA9:DB9"/>
+    <mergeCell ref="DC9:DD9"/>
+    <mergeCell ref="DE9:DF9"/>
+    <mergeCell ref="DG9:DH9"/>
+    <mergeCell ref="CH7:CT7"/>
+    <mergeCell ref="CH8:CH10"/>
+    <mergeCell ref="CI8:CN8"/>
+    <mergeCell ref="CO8:CT8"/>
+    <mergeCell ref="CI9:CJ9"/>
+    <mergeCell ref="CK9:CL9"/>
+    <mergeCell ref="CM9:CN9"/>
+    <mergeCell ref="CO9:CP9"/>
+    <mergeCell ref="CQ9:CR9"/>
+    <mergeCell ref="CS9:CT9"/>
+    <mergeCell ref="BT7:CF7"/>
+    <mergeCell ref="BT8:BT10"/>
+    <mergeCell ref="BU8:BZ8"/>
+    <mergeCell ref="CA8:CF8"/>
+    <mergeCell ref="BU9:BV9"/>
+    <mergeCell ref="BW9:BX9"/>
+    <mergeCell ref="BY9:BZ9"/>
+    <mergeCell ref="CA9:CB9"/>
+    <mergeCell ref="CC9:CD9"/>
+    <mergeCell ref="CE9:CF9"/>
+    <mergeCell ref="BF7:BR7"/>
+    <mergeCell ref="BF8:BF10"/>
+    <mergeCell ref="BG8:BL8"/>
+    <mergeCell ref="BM8:BR8"/>
+    <mergeCell ref="BG9:BH9"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="BK9:BL9"/>
+    <mergeCell ref="BM9:BN9"/>
+    <mergeCell ref="BO9:BP9"/>
+    <mergeCell ref="BQ9:BR9"/>
+    <mergeCell ref="AK8:AP8"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="AR7:BD7"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AS8:AX8"/>
+    <mergeCell ref="AY8:BD8"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AU9:AV9"/>
+    <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
     <mergeCell ref="P7:AB7"/>
     <mergeCell ref="Q8:V8"/>
     <mergeCell ref="AG9:AH9"/>
@@ -2732,70 +2790,6 @@
     <mergeCell ref="AD7:AP7"/>
     <mergeCell ref="AD8:AD10"/>
     <mergeCell ref="AE8:AJ8"/>
-    <mergeCell ref="B7:N7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="AK8:AP8"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="AR7:BD7"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AS8:AX8"/>
-    <mergeCell ref="AY8:BD8"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AU9:AV9"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="BF7:BR7"/>
-    <mergeCell ref="BF8:BF10"/>
-    <mergeCell ref="BG8:BL8"/>
-    <mergeCell ref="BM8:BR8"/>
-    <mergeCell ref="BG9:BH9"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="BK9:BL9"/>
-    <mergeCell ref="BM9:BN9"/>
-    <mergeCell ref="BO9:BP9"/>
-    <mergeCell ref="BQ9:BR9"/>
-    <mergeCell ref="BT7:CF7"/>
-    <mergeCell ref="BT8:BT10"/>
-    <mergeCell ref="BU8:BZ8"/>
-    <mergeCell ref="CA8:CF8"/>
-    <mergeCell ref="BU9:BV9"/>
-    <mergeCell ref="BW9:BX9"/>
-    <mergeCell ref="BY9:BZ9"/>
-    <mergeCell ref="CA9:CB9"/>
-    <mergeCell ref="CC9:CD9"/>
-    <mergeCell ref="CE9:CF9"/>
-    <mergeCell ref="CH7:CT7"/>
-    <mergeCell ref="CH8:CH10"/>
-    <mergeCell ref="CI8:CN8"/>
-    <mergeCell ref="CO8:CT8"/>
-    <mergeCell ref="CI9:CJ9"/>
-    <mergeCell ref="CK9:CL9"/>
-    <mergeCell ref="CM9:CN9"/>
-    <mergeCell ref="CO9:CP9"/>
-    <mergeCell ref="CQ9:CR9"/>
-    <mergeCell ref="CS9:CT9"/>
-    <mergeCell ref="CV7:DH7"/>
-    <mergeCell ref="CV8:CV10"/>
-    <mergeCell ref="CW8:DB8"/>
-    <mergeCell ref="DC8:DH8"/>
-    <mergeCell ref="CW9:CX9"/>
-    <mergeCell ref="CY9:CZ9"/>
-    <mergeCell ref="DA9:DB9"/>
-    <mergeCell ref="DC9:DD9"/>
-    <mergeCell ref="DE9:DF9"/>
-    <mergeCell ref="DG9:DH9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3287,401 +3281,401 @@
       <c r="B8" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="P8" s="26" t="s">
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="P8" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="27" t="s">
+      <c r="Q8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="30" t="s">
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AD8" s="26" t="s">
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AD8" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="AE8" s="27" t="s">
+      <c r="AE8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="29"/>
-      <c r="AK8" s="30" t="s">
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AL8" s="30"/>
-      <c r="AM8" s="30"/>
-      <c r="AN8" s="30"/>
-      <c r="AO8" s="30"/>
-      <c r="AP8" s="30"/>
-      <c r="AR8" s="26" t="s">
+      <c r="AL8" s="29"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="29"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="29"/>
+      <c r="AR8" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="AS8" s="27" t="s">
+      <c r="AS8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="AT8" s="28"/>
-      <c r="AU8" s="28"/>
-      <c r="AV8" s="28"/>
-      <c r="AW8" s="28"/>
-      <c r="AX8" s="29"/>
-      <c r="AY8" s="30" t="s">
+      <c r="AT8" s="27"/>
+      <c r="AU8" s="27"/>
+      <c r="AV8" s="27"/>
+      <c r="AW8" s="27"/>
+      <c r="AX8" s="28"/>
+      <c r="AY8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AZ8" s="30"/>
-      <c r="BA8" s="30"/>
-      <c r="BB8" s="30"/>
-      <c r="BC8" s="30"/>
-      <c r="BD8" s="30"/>
-      <c r="BF8" s="26" t="s">
+      <c r="AZ8" s="29"/>
+      <c r="BA8" s="29"/>
+      <c r="BB8" s="29"/>
+      <c r="BC8" s="29"/>
+      <c r="BD8" s="29"/>
+      <c r="BF8" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="BG8" s="27" t="s">
+      <c r="BG8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="BH8" s="28"/>
-      <c r="BI8" s="28"/>
-      <c r="BJ8" s="28"/>
-      <c r="BK8" s="28"/>
-      <c r="BL8" s="29"/>
-      <c r="BM8" s="30" t="s">
+      <c r="BH8" s="27"/>
+      <c r="BI8" s="27"/>
+      <c r="BJ8" s="27"/>
+      <c r="BK8" s="27"/>
+      <c r="BL8" s="28"/>
+      <c r="BM8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="BN8" s="30"/>
-      <c r="BO8" s="30"/>
-      <c r="BP8" s="30"/>
-      <c r="BQ8" s="30"/>
-      <c r="BR8" s="30"/>
-      <c r="BT8" s="26" t="s">
+      <c r="BN8" s="29"/>
+      <c r="BO8" s="29"/>
+      <c r="BP8" s="29"/>
+      <c r="BQ8" s="29"/>
+      <c r="BR8" s="29"/>
+      <c r="BT8" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="BU8" s="27" t="s">
+      <c r="BU8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="BV8" s="28"/>
-      <c r="BW8" s="28"/>
-      <c r="BX8" s="28"/>
-      <c r="BY8" s="28"/>
-      <c r="BZ8" s="29"/>
-      <c r="CA8" s="30" t="s">
+      <c r="BV8" s="27"/>
+      <c r="BW8" s="27"/>
+      <c r="BX8" s="27"/>
+      <c r="BY8" s="27"/>
+      <c r="BZ8" s="28"/>
+      <c r="CA8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="CB8" s="30"/>
-      <c r="CC8" s="30"/>
-      <c r="CD8" s="30"/>
-      <c r="CE8" s="30"/>
-      <c r="CF8" s="30"/>
-      <c r="CH8" s="26" t="s">
+      <c r="CB8" s="29"/>
+      <c r="CC8" s="29"/>
+      <c r="CD8" s="29"/>
+      <c r="CE8" s="29"/>
+      <c r="CF8" s="29"/>
+      <c r="CH8" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="CI8" s="27" t="s">
+      <c r="CI8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="CJ8" s="28"/>
-      <c r="CK8" s="28"/>
-      <c r="CL8" s="28"/>
-      <c r="CM8" s="28"/>
-      <c r="CN8" s="29"/>
-      <c r="CO8" s="30" t="s">
+      <c r="CJ8" s="27"/>
+      <c r="CK8" s="27"/>
+      <c r="CL8" s="27"/>
+      <c r="CM8" s="27"/>
+      <c r="CN8" s="28"/>
+      <c r="CO8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="CP8" s="30"/>
-      <c r="CQ8" s="30"/>
-      <c r="CR8" s="30"/>
-      <c r="CS8" s="30"/>
-      <c r="CT8" s="30"/>
-      <c r="CV8" s="26" t="s">
+      <c r="CP8" s="29"/>
+      <c r="CQ8" s="29"/>
+      <c r="CR8" s="29"/>
+      <c r="CS8" s="29"/>
+      <c r="CT8" s="29"/>
+      <c r="CV8" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="CW8" s="27" t="s">
+      <c r="CW8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="CX8" s="28"/>
-      <c r="CY8" s="28"/>
-      <c r="CZ8" s="28"/>
-      <c r="DA8" s="28"/>
-      <c r="DB8" s="29"/>
-      <c r="DC8" s="30" t="s">
+      <c r="CX8" s="27"/>
+      <c r="CY8" s="27"/>
+      <c r="CZ8" s="27"/>
+      <c r="DA8" s="27"/>
+      <c r="DB8" s="28"/>
+      <c r="DC8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="DD8" s="30"/>
-      <c r="DE8" s="30"/>
-      <c r="DF8" s="30"/>
-      <c r="DG8" s="30"/>
-      <c r="DH8" s="30"/>
-      <c r="DJ8" s="26" t="s">
+      <c r="DD8" s="29"/>
+      <c r="DE8" s="29"/>
+      <c r="DF8" s="29"/>
+      <c r="DG8" s="29"/>
+      <c r="DH8" s="29"/>
+      <c r="DJ8" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="DK8" s="27" t="s">
+      <c r="DK8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="DL8" s="28"/>
-      <c r="DM8" s="28"/>
-      <c r="DN8" s="28"/>
-      <c r="DO8" s="28"/>
-      <c r="DP8" s="29"/>
-      <c r="DQ8" s="30" t="s">
+      <c r="DL8" s="27"/>
+      <c r="DM8" s="27"/>
+      <c r="DN8" s="27"/>
+      <c r="DO8" s="27"/>
+      <c r="DP8" s="28"/>
+      <c r="DQ8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="DR8" s="30"/>
-      <c r="DS8" s="30"/>
-      <c r="DT8" s="30"/>
-      <c r="DU8" s="30"/>
-      <c r="DV8" s="30"/>
+      <c r="DR8" s="29"/>
+      <c r="DS8" s="29"/>
+      <c r="DT8" s="29"/>
+      <c r="DU8" s="29"/>
+      <c r="DV8" s="29"/>
     </row>
     <row r="9" spans="1:126" x14ac:dyDescent="0.2">
       <c r="B9" s="31"/>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="27" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="27" t="s">
+      <c r="F9" s="27"/>
+      <c r="G9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30" t="s">
+      <c r="H9" s="28"/>
+      <c r="I9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30" t="s">
+      <c r="J9" s="29"/>
+      <c r="K9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30" t="s">
+      <c r="L9" s="29"/>
+      <c r="M9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="30"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="27" t="s">
+      <c r="N9" s="29"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="27" t="s">
+      <c r="R9" s="27"/>
+      <c r="S9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="28"/>
-      <c r="U9" s="27" t="s">
+      <c r="T9" s="27"/>
+      <c r="U9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="29"/>
-      <c r="W9" s="30" t="s">
+      <c r="V9" s="28"/>
+      <c r="W9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30" t="s">
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30" t="s">
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AB9" s="30"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="27" t="s">
+      <c r="AB9" s="29"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="27" t="s">
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="27" t="s">
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="30" t="s">
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AL9" s="30"/>
-      <c r="AM9" s="30" t="s">
+      <c r="AL9" s="29"/>
+      <c r="AM9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30" t="s">
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AP9" s="30"/>
-      <c r="AR9" s="26"/>
-      <c r="AS9" s="27" t="s">
+      <c r="AP9" s="29"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AT9" s="28"/>
-      <c r="AU9" s="27" t="s">
+      <c r="AT9" s="27"/>
+      <c r="AU9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AV9" s="28"/>
-      <c r="AW9" s="27" t="s">
+      <c r="AV9" s="27"/>
+      <c r="AW9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AX9" s="29"/>
-      <c r="AY9" s="30" t="s">
+      <c r="AX9" s="28"/>
+      <c r="AY9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AZ9" s="30"/>
-      <c r="BA9" s="30" t="s">
+      <c r="AZ9" s="29"/>
+      <c r="BA9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="BB9" s="30"/>
-      <c r="BC9" s="30" t="s">
+      <c r="BB9" s="29"/>
+      <c r="BC9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="BD9" s="30"/>
-      <c r="BF9" s="26"/>
-      <c r="BG9" s="27" t="s">
+      <c r="BD9" s="29"/>
+      <c r="BF9" s="30"/>
+      <c r="BG9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="BH9" s="28"/>
-      <c r="BI9" s="27" t="s">
+      <c r="BH9" s="27"/>
+      <c r="BI9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BJ9" s="28"/>
-      <c r="BK9" s="27" t="s">
+      <c r="BJ9" s="27"/>
+      <c r="BK9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="BL9" s="29"/>
-      <c r="BM9" s="30" t="s">
+      <c r="BL9" s="28"/>
+      <c r="BM9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="BN9" s="30"/>
-      <c r="BO9" s="30" t="s">
+      <c r="BN9" s="29"/>
+      <c r="BO9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="BP9" s="30"/>
-      <c r="BQ9" s="30" t="s">
+      <c r="BP9" s="29"/>
+      <c r="BQ9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="BR9" s="30"/>
-      <c r="BT9" s="26"/>
-      <c r="BU9" s="27" t="s">
+      <c r="BR9" s="29"/>
+      <c r="BT9" s="30"/>
+      <c r="BU9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="BV9" s="28"/>
-      <c r="BW9" s="27" t="s">
+      <c r="BV9" s="27"/>
+      <c r="BW9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BX9" s="28"/>
-      <c r="BY9" s="27" t="s">
+      <c r="BX9" s="27"/>
+      <c r="BY9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="BZ9" s="29"/>
-      <c r="CA9" s="30" t="s">
+      <c r="BZ9" s="28"/>
+      <c r="CA9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CB9" s="30"/>
-      <c r="CC9" s="30" t="s">
+      <c r="CB9" s="29"/>
+      <c r="CC9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CD9" s="30"/>
-      <c r="CE9" s="30" t="s">
+      <c r="CD9" s="29"/>
+      <c r="CE9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="CF9" s="30"/>
-      <c r="CH9" s="26"/>
-      <c r="CI9" s="27" t="s">
+      <c r="CF9" s="29"/>
+      <c r="CH9" s="30"/>
+      <c r="CI9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CJ9" s="28"/>
-      <c r="CK9" s="27" t="s">
+      <c r="CJ9" s="27"/>
+      <c r="CK9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="CL9" s="28"/>
-      <c r="CM9" s="27" t="s">
+      <c r="CL9" s="27"/>
+      <c r="CM9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="CN9" s="29"/>
-      <c r="CO9" s="30" t="s">
+      <c r="CN9" s="28"/>
+      <c r="CO9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CP9" s="30"/>
-      <c r="CQ9" s="30" t="s">
+      <c r="CP9" s="29"/>
+      <c r="CQ9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CR9" s="30"/>
-      <c r="CS9" s="30" t="s">
+      <c r="CR9" s="29"/>
+      <c r="CS9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="CT9" s="30"/>
-      <c r="CV9" s="26"/>
-      <c r="CW9" s="27" t="s">
+      <c r="CT9" s="29"/>
+      <c r="CV9" s="30"/>
+      <c r="CW9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CX9" s="28"/>
-      <c r="CY9" s="27" t="s">
+      <c r="CX9" s="27"/>
+      <c r="CY9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="CZ9" s="28"/>
-      <c r="DA9" s="27" t="s">
+      <c r="CZ9" s="27"/>
+      <c r="DA9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="DB9" s="29"/>
-      <c r="DC9" s="30" t="s">
+      <c r="DB9" s="28"/>
+      <c r="DC9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="DD9" s="30"/>
-      <c r="DE9" s="30" t="s">
+      <c r="DD9" s="29"/>
+      <c r="DE9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="DF9" s="30"/>
-      <c r="DG9" s="30" t="s">
+      <c r="DF9" s="29"/>
+      <c r="DG9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="DH9" s="30"/>
-      <c r="DJ9" s="26"/>
-      <c r="DK9" s="27" t="s">
+      <c r="DH9" s="29"/>
+      <c r="DJ9" s="30"/>
+      <c r="DK9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="DL9" s="28"/>
-      <c r="DM9" s="27" t="s">
+      <c r="DL9" s="27"/>
+      <c r="DM9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="DN9" s="28"/>
-      <c r="DO9" s="27" t="s">
+      <c r="DN9" s="27"/>
+      <c r="DO9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="DP9" s="29"/>
-      <c r="DQ9" s="30" t="s">
+      <c r="DP9" s="28"/>
+      <c r="DQ9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="DR9" s="30"/>
-      <c r="DS9" s="30" t="s">
+      <c r="DR9" s="29"/>
+      <c r="DS9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="DT9" s="30"/>
-      <c r="DU9" s="30" t="s">
+      <c r="DT9" s="29"/>
+      <c r="DU9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="DV9" s="30"/>
+      <c r="DV9" s="29"/>
     </row>
     <row r="10" spans="1:126" x14ac:dyDescent="0.2">
       <c r="B10" s="31"/>
@@ -3721,7 +3715,7 @@
       <c r="N10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="26"/>
+      <c r="P10" s="30"/>
       <c r="Q10" s="22" t="s">
         <v>0</v>
       </c>
@@ -3758,7 +3752,7 @@
       <c r="AB10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AD10" s="26"/>
+      <c r="AD10" s="30"/>
       <c r="AE10" s="22" t="s">
         <v>0</v>
       </c>
@@ -3795,7 +3789,7 @@
       <c r="AP10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AR10" s="26"/>
+      <c r="AR10" s="30"/>
       <c r="AS10" s="22" t="s">
         <v>0</v>
       </c>
@@ -3832,7 +3826,7 @@
       <c r="BD10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BF10" s="26"/>
+      <c r="BF10" s="30"/>
       <c r="BG10" s="22" t="s">
         <v>0</v>
       </c>
@@ -3869,7 +3863,7 @@
       <c r="BR10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BT10" s="26"/>
+      <c r="BT10" s="30"/>
       <c r="BU10" s="22" t="s">
         <v>0</v>
       </c>
@@ -3906,7 +3900,7 @@
       <c r="CF10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CH10" s="26"/>
+      <c r="CH10" s="30"/>
       <c r="CI10" s="22" t="s">
         <v>0</v>
       </c>
@@ -3943,7 +3937,7 @@
       <c r="CT10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CV10" s="26"/>
+      <c r="CV10" s="30"/>
       <c r="CW10" s="22" t="s">
         <v>0</v>
       </c>
@@ -3980,7 +3974,7 @@
       <c r="DH10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="DJ10" s="26"/>
+      <c r="DJ10" s="30"/>
       <c r="DK10" s="22" t="s">
         <v>0</v>
       </c>
@@ -4940,6 +4934,80 @@
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="DA9:DB9"/>
+    <mergeCell ref="DC9:DD9"/>
+    <mergeCell ref="DE9:DF9"/>
+    <mergeCell ref="DG9:DH9"/>
+    <mergeCell ref="DJ7:DV7"/>
+    <mergeCell ref="DJ8:DJ10"/>
+    <mergeCell ref="DK8:DP8"/>
+    <mergeCell ref="DQ8:DV8"/>
+    <mergeCell ref="DK9:DL9"/>
+    <mergeCell ref="DM9:DN9"/>
+    <mergeCell ref="DO9:DP9"/>
+    <mergeCell ref="DQ9:DR9"/>
+    <mergeCell ref="DS9:DT9"/>
+    <mergeCell ref="DU9:DV9"/>
+    <mergeCell ref="BK9:BL9"/>
+    <mergeCell ref="CY9:CZ9"/>
+    <mergeCell ref="BY9:BZ9"/>
+    <mergeCell ref="CA9:CB9"/>
+    <mergeCell ref="CC9:CD9"/>
+    <mergeCell ref="CE9:CF9"/>
+    <mergeCell ref="CI9:CJ9"/>
+    <mergeCell ref="CK9:CL9"/>
+    <mergeCell ref="CM9:CN9"/>
+    <mergeCell ref="CO9:CP9"/>
+    <mergeCell ref="CQ9:CR9"/>
+    <mergeCell ref="CS9:CT9"/>
+    <mergeCell ref="CW9:CX9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="BG9:BH9"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="CO8:CT8"/>
+    <mergeCell ref="CV8:CV10"/>
+    <mergeCell ref="CW8:DB8"/>
+    <mergeCell ref="DC8:DH8"/>
+    <mergeCell ref="CH8:CH10"/>
+    <mergeCell ref="CI8:CN8"/>
+    <mergeCell ref="AU9:AV9"/>
+    <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BM9:BN9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="BM8:BR8"/>
+    <mergeCell ref="BT8:BT10"/>
+    <mergeCell ref="BU8:BZ8"/>
+    <mergeCell ref="CA8:CF8"/>
+    <mergeCell ref="BO9:BP9"/>
+    <mergeCell ref="BQ9:BR9"/>
+    <mergeCell ref="BU9:BV9"/>
+    <mergeCell ref="BW9:BX9"/>
+    <mergeCell ref="AK8:AP8"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AS8:AX8"/>
+    <mergeCell ref="AY8:BD8"/>
+    <mergeCell ref="BF8:BF10"/>
+    <mergeCell ref="BG8:BL8"/>
+    <mergeCell ref="AS9:AT9"/>
     <mergeCell ref="CH7:CT7"/>
     <mergeCell ref="CV7:DH7"/>
     <mergeCell ref="B8:B10"/>
@@ -4956,80 +5024,6 @@
     <mergeCell ref="AR7:BD7"/>
     <mergeCell ref="BF7:BR7"/>
     <mergeCell ref="BT7:CF7"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="BM8:BR8"/>
-    <mergeCell ref="BT8:BT10"/>
-    <mergeCell ref="BU8:BZ8"/>
-    <mergeCell ref="CA8:CF8"/>
-    <mergeCell ref="BO9:BP9"/>
-    <mergeCell ref="BQ9:BR9"/>
-    <mergeCell ref="BU9:BV9"/>
-    <mergeCell ref="BW9:BX9"/>
-    <mergeCell ref="AK8:AP8"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AS8:AX8"/>
-    <mergeCell ref="AY8:BD8"/>
-    <mergeCell ref="BF8:BF10"/>
-    <mergeCell ref="BG8:BL8"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="CO8:CT8"/>
-    <mergeCell ref="CV8:CV10"/>
-    <mergeCell ref="CW8:DB8"/>
-    <mergeCell ref="DC8:DH8"/>
-    <mergeCell ref="CH8:CH10"/>
-    <mergeCell ref="CI8:CN8"/>
-    <mergeCell ref="AU9:AV9"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BM9:BN9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="BG9:BH9"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="BK9:BL9"/>
-    <mergeCell ref="CY9:CZ9"/>
-    <mergeCell ref="BY9:BZ9"/>
-    <mergeCell ref="CA9:CB9"/>
-    <mergeCell ref="CC9:CD9"/>
-    <mergeCell ref="CE9:CF9"/>
-    <mergeCell ref="CI9:CJ9"/>
-    <mergeCell ref="CK9:CL9"/>
-    <mergeCell ref="CM9:CN9"/>
-    <mergeCell ref="CO9:CP9"/>
-    <mergeCell ref="CQ9:CR9"/>
-    <mergeCell ref="CS9:CT9"/>
-    <mergeCell ref="CW9:CX9"/>
-    <mergeCell ref="DA9:DB9"/>
-    <mergeCell ref="DC9:DD9"/>
-    <mergeCell ref="DE9:DF9"/>
-    <mergeCell ref="DG9:DH9"/>
-    <mergeCell ref="DJ7:DV7"/>
-    <mergeCell ref="DJ8:DJ10"/>
-    <mergeCell ref="DK8:DP8"/>
-    <mergeCell ref="DQ8:DV8"/>
-    <mergeCell ref="DK9:DL9"/>
-    <mergeCell ref="DM9:DN9"/>
-    <mergeCell ref="DO9:DP9"/>
-    <mergeCell ref="DQ9:DR9"/>
-    <mergeCell ref="DS9:DT9"/>
-    <mergeCell ref="DU9:DV9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5038,10 +5032,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CT21"/>
+  <dimension ref="A1:CT15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5360,314 +5354,314 @@
       <c r="B8" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="P8" s="26" t="s">
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="P8" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="27" t="s">
+      <c r="Q8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="30" t="s">
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AD8" s="26" t="s">
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AD8" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="AE8" s="27" t="s">
+      <c r="AE8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28"/>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="29"/>
-      <c r="AK8" s="30" t="s">
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AL8" s="30"/>
-      <c r="AM8" s="30"/>
-      <c r="AN8" s="30"/>
-      <c r="AO8" s="30"/>
-      <c r="AP8" s="30"/>
-      <c r="AR8" s="26" t="s">
+      <c r="AL8" s="29"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="29"/>
+      <c r="AO8" s="29"/>
+      <c r="AP8" s="29"/>
+      <c r="AR8" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="AS8" s="27" t="s">
+      <c r="AS8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="AT8" s="28"/>
-      <c r="AU8" s="28"/>
-      <c r="AV8" s="28"/>
-      <c r="AW8" s="28"/>
-      <c r="AX8" s="29"/>
-      <c r="AY8" s="30" t="s">
+      <c r="AT8" s="27"/>
+      <c r="AU8" s="27"/>
+      <c r="AV8" s="27"/>
+      <c r="AW8" s="27"/>
+      <c r="AX8" s="28"/>
+      <c r="AY8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AZ8" s="30"/>
-      <c r="BA8" s="30"/>
-      <c r="BB8" s="30"/>
-      <c r="BC8" s="30"/>
-      <c r="BD8" s="30"/>
-      <c r="BF8" s="26" t="s">
+      <c r="AZ8" s="29"/>
+      <c r="BA8" s="29"/>
+      <c r="BB8" s="29"/>
+      <c r="BC8" s="29"/>
+      <c r="BD8" s="29"/>
+      <c r="BF8" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="BG8" s="27" t="s">
+      <c r="BG8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="BH8" s="28"/>
-      <c r="BI8" s="28"/>
-      <c r="BJ8" s="28"/>
-      <c r="BK8" s="28"/>
-      <c r="BL8" s="29"/>
-      <c r="BM8" s="30" t="s">
+      <c r="BH8" s="27"/>
+      <c r="BI8" s="27"/>
+      <c r="BJ8" s="27"/>
+      <c r="BK8" s="27"/>
+      <c r="BL8" s="28"/>
+      <c r="BM8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="BN8" s="30"/>
-      <c r="BO8" s="30"/>
-      <c r="BP8" s="30"/>
-      <c r="BQ8" s="30"/>
-      <c r="BR8" s="30"/>
-      <c r="BT8" s="26" t="s">
+      <c r="BN8" s="29"/>
+      <c r="BO8" s="29"/>
+      <c r="BP8" s="29"/>
+      <c r="BQ8" s="29"/>
+      <c r="BR8" s="29"/>
+      <c r="BT8" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="BU8" s="27" t="s">
+      <c r="BU8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="BV8" s="28"/>
-      <c r="BW8" s="28"/>
-      <c r="BX8" s="28"/>
-      <c r="BY8" s="28"/>
-      <c r="BZ8" s="29"/>
-      <c r="CA8" s="30" t="s">
+      <c r="BV8" s="27"/>
+      <c r="BW8" s="27"/>
+      <c r="BX8" s="27"/>
+      <c r="BY8" s="27"/>
+      <c r="BZ8" s="28"/>
+      <c r="CA8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="CB8" s="30"/>
-      <c r="CC8" s="30"/>
-      <c r="CD8" s="30"/>
-      <c r="CE8" s="30"/>
-      <c r="CF8" s="30"/>
-      <c r="CH8" s="26" t="s">
+      <c r="CB8" s="29"/>
+      <c r="CC8" s="29"/>
+      <c r="CD8" s="29"/>
+      <c r="CE8" s="29"/>
+      <c r="CF8" s="29"/>
+      <c r="CH8" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="27" t="s">
+      <c r="CI8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="CJ8" s="28"/>
-      <c r="CK8" s="28"/>
-      <c r="CL8" s="28"/>
-      <c r="CM8" s="28"/>
-      <c r="CN8" s="29"/>
-      <c r="CO8" s="30" t="s">
+      <c r="CJ8" s="27"/>
+      <c r="CK8" s="27"/>
+      <c r="CL8" s="27"/>
+      <c r="CM8" s="27"/>
+      <c r="CN8" s="28"/>
+      <c r="CO8" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="CP8" s="30"/>
-      <c r="CQ8" s="30"/>
-      <c r="CR8" s="30"/>
-      <c r="CS8" s="30"/>
-      <c r="CT8" s="30"/>
+      <c r="CP8" s="29"/>
+      <c r="CQ8" s="29"/>
+      <c r="CR8" s="29"/>
+      <c r="CS8" s="29"/>
+      <c r="CT8" s="29"/>
     </row>
     <row r="9" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="27" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="27" t="s">
+      <c r="F9" s="27"/>
+      <c r="G9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30" t="s">
+      <c r="H9" s="28"/>
+      <c r="I9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30" t="s">
+      <c r="J9" s="29"/>
+      <c r="K9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30" t="s">
+      <c r="L9" s="29"/>
+      <c r="M9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="30"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="27" t="s">
+      <c r="N9" s="29"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="27" t="s">
+      <c r="R9" s="27"/>
+      <c r="S9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="28"/>
-      <c r="U9" s="27" t="s">
+      <c r="T9" s="27"/>
+      <c r="U9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="29"/>
-      <c r="W9" s="30" t="s">
+      <c r="V9" s="28"/>
+      <c r="W9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30" t="s">
+      <c r="X9" s="29"/>
+      <c r="Y9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30" t="s">
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AB9" s="30"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="27" t="s">
+      <c r="AB9" s="29"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="27" t="s">
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AH9" s="28"/>
-      <c r="AI9" s="27" t="s">
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="30" t="s">
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AL9" s="30"/>
-      <c r="AM9" s="30" t="s">
+      <c r="AL9" s="29"/>
+      <c r="AM9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30" t="s">
+      <c r="AN9" s="29"/>
+      <c r="AO9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AP9" s="30"/>
-      <c r="AR9" s="26"/>
-      <c r="AS9" s="27" t="s">
+      <c r="AP9" s="29"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AT9" s="28"/>
-      <c r="AU9" s="27" t="s">
+      <c r="AT9" s="27"/>
+      <c r="AU9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AV9" s="28"/>
-      <c r="AW9" s="27" t="s">
+      <c r="AV9" s="27"/>
+      <c r="AW9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AX9" s="29"/>
-      <c r="AY9" s="30" t="s">
+      <c r="AX9" s="28"/>
+      <c r="AY9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AZ9" s="30"/>
-      <c r="BA9" s="30" t="s">
+      <c r="AZ9" s="29"/>
+      <c r="BA9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="BB9" s="30"/>
-      <c r="BC9" s="30" t="s">
+      <c r="BB9" s="29"/>
+      <c r="BC9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="BD9" s="30"/>
-      <c r="BF9" s="26"/>
-      <c r="BG9" s="27" t="s">
+      <c r="BD9" s="29"/>
+      <c r="BF9" s="30"/>
+      <c r="BG9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="BH9" s="28"/>
-      <c r="BI9" s="27" t="s">
+      <c r="BH9" s="27"/>
+      <c r="BI9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BJ9" s="28"/>
-      <c r="BK9" s="27" t="s">
+      <c r="BJ9" s="27"/>
+      <c r="BK9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="BL9" s="29"/>
-      <c r="BM9" s="30" t="s">
+      <c r="BL9" s="28"/>
+      <c r="BM9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="BN9" s="30"/>
-      <c r="BO9" s="30" t="s">
+      <c r="BN9" s="29"/>
+      <c r="BO9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="BP9" s="30"/>
-      <c r="BQ9" s="30" t="s">
+      <c r="BP9" s="29"/>
+      <c r="BQ9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="BR9" s="30"/>
-      <c r="BT9" s="26"/>
-      <c r="BU9" s="27" t="s">
+      <c r="BR9" s="29"/>
+      <c r="BT9" s="30"/>
+      <c r="BU9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="BV9" s="28"/>
-      <c r="BW9" s="27" t="s">
+      <c r="BV9" s="27"/>
+      <c r="BW9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="BX9" s="28"/>
-      <c r="BY9" s="27" t="s">
+      <c r="BX9" s="27"/>
+      <c r="BY9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="BZ9" s="29"/>
-      <c r="CA9" s="30" t="s">
+      <c r="BZ9" s="28"/>
+      <c r="CA9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CB9" s="30"/>
-      <c r="CC9" s="30" t="s">
+      <c r="CB9" s="29"/>
+      <c r="CC9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CD9" s="30"/>
-      <c r="CE9" s="30" t="s">
+      <c r="CD9" s="29"/>
+      <c r="CE9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="CF9" s="30"/>
-      <c r="CH9" s="26"/>
-      <c r="CI9" s="27" t="s">
+      <c r="CF9" s="29"/>
+      <c r="CH9" s="30"/>
+      <c r="CI9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CJ9" s="28"/>
-      <c r="CK9" s="27" t="s">
+      <c r="CJ9" s="27"/>
+      <c r="CK9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="CL9" s="28"/>
-      <c r="CM9" s="27" t="s">
+      <c r="CL9" s="27"/>
+      <c r="CM9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="CN9" s="29"/>
-      <c r="CO9" s="30" t="s">
+      <c r="CN9" s="28"/>
+      <c r="CO9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CP9" s="30"/>
-      <c r="CQ9" s="30" t="s">
+      <c r="CP9" s="29"/>
+      <c r="CQ9" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="CR9" s="30"/>
-      <c r="CS9" s="30" t="s">
+      <c r="CR9" s="29"/>
+      <c r="CS9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="CT9" s="30"/>
+      <c r="CT9" s="29"/>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
@@ -5708,7 +5702,7 @@
       <c r="N10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="26"/>
+      <c r="P10" s="30"/>
       <c r="Q10" s="24" t="s">
         <v>0</v>
       </c>
@@ -5745,7 +5739,7 @@
       <c r="AB10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AD10" s="26"/>
+      <c r="AD10" s="30"/>
       <c r="AE10" s="24" t="s">
         <v>0</v>
       </c>
@@ -5782,7 +5776,7 @@
       <c r="AP10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AR10" s="26"/>
+      <c r="AR10" s="30"/>
       <c r="AS10" s="24" t="s">
         <v>0</v>
       </c>
@@ -5819,7 +5813,7 @@
       <c r="BD10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BF10" s="26"/>
+      <c r="BF10" s="30"/>
       <c r="BG10" s="24" t="s">
         <v>0</v>
       </c>
@@ -5856,7 +5850,7 @@
       <c r="BR10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BT10" s="26"/>
+      <c r="BT10" s="30"/>
       <c r="BU10" s="24" t="s">
         <v>0</v>
       </c>
@@ -5893,7 +5887,7 @@
       <c r="CF10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CH10" s="26"/>
+      <c r="CH10" s="30"/>
       <c r="CI10" s="24" t="s">
         <v>0</v>
       </c>
@@ -6461,18 +6455,68 @@
       <c r="CS15" s="4"/>
       <c r="CT15" s="4"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="F21" t="s">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="P7:AB7"/>
+    <mergeCell ref="W8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="AD7:AP7"/>
+    <mergeCell ref="AD8:AD10"/>
+    <mergeCell ref="AE8:AJ8"/>
+    <mergeCell ref="AK8:AP8"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="AR7:BD7"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AS8:AX8"/>
+    <mergeCell ref="AY8:BD8"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AU9:AV9"/>
+    <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="BF7:BR7"/>
+    <mergeCell ref="BF8:BF10"/>
+    <mergeCell ref="BG8:BL8"/>
+    <mergeCell ref="BM8:BR8"/>
+    <mergeCell ref="BG9:BH9"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="BK9:BL9"/>
+    <mergeCell ref="BM9:BN9"/>
+    <mergeCell ref="BO9:BP9"/>
+    <mergeCell ref="BQ9:BR9"/>
+    <mergeCell ref="BT7:CF7"/>
+    <mergeCell ref="BT8:BT10"/>
+    <mergeCell ref="BU8:BZ8"/>
+    <mergeCell ref="CA8:CF8"/>
+    <mergeCell ref="BU9:BV9"/>
+    <mergeCell ref="BW9:BX9"/>
+    <mergeCell ref="BY9:BZ9"/>
+    <mergeCell ref="CA9:CB9"/>
+    <mergeCell ref="CC9:CD9"/>
+    <mergeCell ref="CE9:CF9"/>
     <mergeCell ref="CH7:CT7"/>
     <mergeCell ref="CH8:CH10"/>
     <mergeCell ref="CI8:CN8"/>
@@ -6483,66 +6527,6 @@
     <mergeCell ref="CO9:CP9"/>
     <mergeCell ref="CQ9:CR9"/>
     <mergeCell ref="CS9:CT9"/>
-    <mergeCell ref="BT7:CF7"/>
-    <mergeCell ref="BT8:BT10"/>
-    <mergeCell ref="BU8:BZ8"/>
-    <mergeCell ref="CA8:CF8"/>
-    <mergeCell ref="BU9:BV9"/>
-    <mergeCell ref="BW9:BX9"/>
-    <mergeCell ref="BY9:BZ9"/>
-    <mergeCell ref="CA9:CB9"/>
-    <mergeCell ref="CC9:CD9"/>
-    <mergeCell ref="CE9:CF9"/>
-    <mergeCell ref="BF7:BR7"/>
-    <mergeCell ref="BF8:BF10"/>
-    <mergeCell ref="BG8:BL8"/>
-    <mergeCell ref="BM8:BR8"/>
-    <mergeCell ref="BG9:BH9"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="BK9:BL9"/>
-    <mergeCell ref="BM9:BN9"/>
-    <mergeCell ref="BO9:BP9"/>
-    <mergeCell ref="BQ9:BR9"/>
-    <mergeCell ref="AR7:BD7"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AS8:AX8"/>
-    <mergeCell ref="AY8:BD8"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AU9:AV9"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="AD7:AP7"/>
-    <mergeCell ref="AD8:AD10"/>
-    <mergeCell ref="AE8:AJ8"/>
-    <mergeCell ref="AK8:AP8"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="B7:N7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="P7:AB7"/>
-    <mergeCell ref="W8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/storage/excel/summary13.xlsx
+++ b/storage/excel/summary13.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\survey\storage\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\survey\storage\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="15960" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="15960" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="13.1" sheetId="18" r:id="rId1"/>
     <sheet name="13.2" sheetId="19" r:id="rId2"/>
     <sheet name="13.3" sheetId="20" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="100">
   <si>
     <t>จำนวน</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>no_ra908(265)</t>
+  </si>
+  <si>
+    <t>อื่นๆ</t>
   </si>
 </sst>
 </file>
@@ -540,6 +543,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -551,9 +557,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -898,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DH16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1338,357 +1341,357 @@
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="P8" s="30" t="s">
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="P8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="Q8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="29" t="s">
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AD8" s="30" t="s">
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AD8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AE8" s="26" t="s">
+      <c r="AE8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="29" t="s">
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AL8" s="29"/>
-      <c r="AM8" s="29"/>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="29"/>
-      <c r="AP8" s="29"/>
-      <c r="AR8" s="30" t="s">
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
+      <c r="AR8" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="AS8" s="26" t="s">
+      <c r="AS8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="AT8" s="27"/>
-      <c r="AU8" s="27"/>
-      <c r="AV8" s="27"/>
-      <c r="AW8" s="27"/>
-      <c r="AX8" s="28"/>
-      <c r="AY8" s="29" t="s">
+      <c r="AT8" s="28"/>
+      <c r="AU8" s="28"/>
+      <c r="AV8" s="28"/>
+      <c r="AW8" s="28"/>
+      <c r="AX8" s="29"/>
+      <c r="AY8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AZ8" s="29"/>
-      <c r="BA8" s="29"/>
-      <c r="BB8" s="29"/>
-      <c r="BC8" s="29"/>
-      <c r="BD8" s="29"/>
-      <c r="BF8" s="30" t="s">
+      <c r="AZ8" s="30"/>
+      <c r="BA8" s="30"/>
+      <c r="BB8" s="30"/>
+      <c r="BC8" s="30"/>
+      <c r="BD8" s="30"/>
+      <c r="BF8" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="BG8" s="26" t="s">
+      <c r="BG8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="BH8" s="27"/>
-      <c r="BI8" s="27"/>
-      <c r="BJ8" s="27"/>
-      <c r="BK8" s="27"/>
-      <c r="BL8" s="28"/>
-      <c r="BM8" s="29" t="s">
+      <c r="BH8" s="28"/>
+      <c r="BI8" s="28"/>
+      <c r="BJ8" s="28"/>
+      <c r="BK8" s="28"/>
+      <c r="BL8" s="29"/>
+      <c r="BM8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="BN8" s="29"/>
-      <c r="BO8" s="29"/>
-      <c r="BP8" s="29"/>
-      <c r="BQ8" s="29"/>
-      <c r="BR8" s="29"/>
-      <c r="BT8" s="30" t="s">
+      <c r="BN8" s="30"/>
+      <c r="BO8" s="30"/>
+      <c r="BP8" s="30"/>
+      <c r="BQ8" s="30"/>
+      <c r="BR8" s="30"/>
+      <c r="BT8" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="BU8" s="26" t="s">
+      <c r="BU8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="BV8" s="27"/>
-      <c r="BW8" s="27"/>
-      <c r="BX8" s="27"/>
-      <c r="BY8" s="27"/>
-      <c r="BZ8" s="28"/>
-      <c r="CA8" s="29" t="s">
+      <c r="BV8" s="28"/>
+      <c r="BW8" s="28"/>
+      <c r="BX8" s="28"/>
+      <c r="BY8" s="28"/>
+      <c r="BZ8" s="29"/>
+      <c r="CA8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="CB8" s="29"/>
-      <c r="CC8" s="29"/>
-      <c r="CD8" s="29"/>
-      <c r="CE8" s="29"/>
-      <c r="CF8" s="29"/>
-      <c r="CH8" s="30" t="s">
+      <c r="CB8" s="30"/>
+      <c r="CC8" s="30"/>
+      <c r="CD8" s="30"/>
+      <c r="CE8" s="30"/>
+      <c r="CF8" s="30"/>
+      <c r="CH8" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="CI8" s="26" t="s">
+      <c r="CI8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="CJ8" s="27"/>
-      <c r="CK8" s="27"/>
-      <c r="CL8" s="27"/>
-      <c r="CM8" s="27"/>
-      <c r="CN8" s="28"/>
-      <c r="CO8" s="29" t="s">
+      <c r="CJ8" s="28"/>
+      <c r="CK8" s="28"/>
+      <c r="CL8" s="28"/>
+      <c r="CM8" s="28"/>
+      <c r="CN8" s="29"/>
+      <c r="CO8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="CP8" s="29"/>
-      <c r="CQ8" s="29"/>
-      <c r="CR8" s="29"/>
-      <c r="CS8" s="29"/>
-      <c r="CT8" s="29"/>
-      <c r="CV8" s="30" t="s">
+      <c r="CP8" s="30"/>
+      <c r="CQ8" s="30"/>
+      <c r="CR8" s="30"/>
+      <c r="CS8" s="30"/>
+      <c r="CT8" s="30"/>
+      <c r="CV8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="CW8" s="26" t="s">
+      <c r="CW8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="CX8" s="27"/>
-      <c r="CY8" s="27"/>
-      <c r="CZ8" s="27"/>
-      <c r="DA8" s="27"/>
-      <c r="DB8" s="28"/>
-      <c r="DC8" s="29" t="s">
+      <c r="CX8" s="28"/>
+      <c r="CY8" s="28"/>
+      <c r="CZ8" s="28"/>
+      <c r="DA8" s="28"/>
+      <c r="DB8" s="29"/>
+      <c r="DC8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="DD8" s="29"/>
-      <c r="DE8" s="29"/>
-      <c r="DF8" s="29"/>
-      <c r="DG8" s="29"/>
-      <c r="DH8" s="29"/>
+      <c r="DD8" s="30"/>
+      <c r="DE8" s="30"/>
+      <c r="DF8" s="30"/>
+      <c r="DG8" s="30"/>
+      <c r="DH8" s="30"/>
     </row>
     <row r="9" spans="1:112" x14ac:dyDescent="0.2">
       <c r="B9" s="31"/>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="26" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="26" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29" t="s">
+      <c r="H9" s="29"/>
+      <c r="I9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29" t="s">
+      <c r="J9" s="30"/>
+      <c r="K9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29" t="s">
+      <c r="L9" s="30"/>
+      <c r="M9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="29"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="26" t="s">
+      <c r="N9" s="30"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="27"/>
-      <c r="S9" s="26" t="s">
+      <c r="R9" s="28"/>
+      <c r="S9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="27"/>
-      <c r="U9" s="26" t="s">
+      <c r="T9" s="28"/>
+      <c r="U9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="28"/>
-      <c r="W9" s="29" t="s">
+      <c r="V9" s="29"/>
+      <c r="W9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29" t="s">
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29" t="s">
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AB9" s="29"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="26" t="s">
+      <c r="AB9" s="30"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="26" t="s">
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="26" t="s">
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="29" t="s">
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AL9" s="29"/>
-      <c r="AM9" s="29" t="s">
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29" t="s">
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AP9" s="29"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="26" t="s">
+      <c r="AP9" s="30"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AT9" s="27"/>
-      <c r="AU9" s="26" t="s">
+      <c r="AT9" s="28"/>
+      <c r="AU9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="26" t="s">
+      <c r="AV9" s="28"/>
+      <c r="AW9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AX9" s="28"/>
-      <c r="AY9" s="29" t="s">
+      <c r="AX9" s="29"/>
+      <c r="AY9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AZ9" s="29"/>
-      <c r="BA9" s="29" t="s">
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="BB9" s="29"/>
-      <c r="BC9" s="29" t="s">
+      <c r="BB9" s="30"/>
+      <c r="BC9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BD9" s="29"/>
-      <c r="BF9" s="30"/>
-      <c r="BG9" s="26" t="s">
+      <c r="BD9" s="30"/>
+      <c r="BF9" s="26"/>
+      <c r="BG9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="BH9" s="27"/>
-      <c r="BI9" s="26" t="s">
+      <c r="BH9" s="28"/>
+      <c r="BI9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="BJ9" s="27"/>
-      <c r="BK9" s="26" t="s">
+      <c r="BJ9" s="28"/>
+      <c r="BK9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BL9" s="28"/>
-      <c r="BM9" s="29" t="s">
+      <c r="BL9" s="29"/>
+      <c r="BM9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="BN9" s="29"/>
-      <c r="BO9" s="29" t="s">
+      <c r="BN9" s="30"/>
+      <c r="BO9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="BP9" s="29"/>
-      <c r="BQ9" s="29" t="s">
+      <c r="BP9" s="30"/>
+      <c r="BQ9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BR9" s="29"/>
-      <c r="BT9" s="30"/>
-      <c r="BU9" s="26" t="s">
+      <c r="BR9" s="30"/>
+      <c r="BT9" s="26"/>
+      <c r="BU9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="BV9" s="27"/>
-      <c r="BW9" s="26" t="s">
+      <c r="BV9" s="28"/>
+      <c r="BW9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="BX9" s="27"/>
-      <c r="BY9" s="26" t="s">
+      <c r="BX9" s="28"/>
+      <c r="BY9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BZ9" s="28"/>
-      <c r="CA9" s="29" t="s">
+      <c r="BZ9" s="29"/>
+      <c r="CA9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="CB9" s="29"/>
-      <c r="CC9" s="29" t="s">
+      <c r="CB9" s="30"/>
+      <c r="CC9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="CD9" s="29"/>
-      <c r="CE9" s="29" t="s">
+      <c r="CD9" s="30"/>
+      <c r="CE9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="CF9" s="29"/>
-      <c r="CH9" s="30"/>
-      <c r="CI9" s="26" t="s">
+      <c r="CF9" s="30"/>
+      <c r="CH9" s="26"/>
+      <c r="CI9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CJ9" s="27"/>
-      <c r="CK9" s="26" t="s">
+      <c r="CJ9" s="28"/>
+      <c r="CK9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CL9" s="27"/>
-      <c r="CM9" s="26" t="s">
+      <c r="CL9" s="28"/>
+      <c r="CM9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="CN9" s="28"/>
-      <c r="CO9" s="29" t="s">
+      <c r="CN9" s="29"/>
+      <c r="CO9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="CP9" s="29"/>
-      <c r="CQ9" s="29" t="s">
+      <c r="CP9" s="30"/>
+      <c r="CQ9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="CR9" s="29"/>
-      <c r="CS9" s="29" t="s">
+      <c r="CR9" s="30"/>
+      <c r="CS9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="CT9" s="29"/>
-      <c r="CV9" s="30"/>
-      <c r="CW9" s="26" t="s">
+      <c r="CT9" s="30"/>
+      <c r="CV9" s="26"/>
+      <c r="CW9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CX9" s="27"/>
-      <c r="CY9" s="26" t="s">
+      <c r="CX9" s="28"/>
+      <c r="CY9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CZ9" s="27"/>
-      <c r="DA9" s="26" t="s">
+      <c r="CZ9" s="28"/>
+      <c r="DA9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="DB9" s="28"/>
-      <c r="DC9" s="29" t="s">
+      <c r="DB9" s="29"/>
+      <c r="DC9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="DD9" s="29"/>
-      <c r="DE9" s="29" t="s">
+      <c r="DD9" s="30"/>
+      <c r="DE9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="DF9" s="29"/>
-      <c r="DG9" s="29" t="s">
+      <c r="DF9" s="30"/>
+      <c r="DG9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="DH9" s="29"/>
+      <c r="DH9" s="30"/>
     </row>
     <row r="10" spans="1:112" x14ac:dyDescent="0.2">
       <c r="B10" s="31"/>
@@ -1728,7 +1731,7 @@
       <c r="N10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="30"/>
+      <c r="P10" s="26"/>
       <c r="Q10" s="22" t="s">
         <v>0</v>
       </c>
@@ -1765,7 +1768,7 @@
       <c r="AB10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AD10" s="30"/>
+      <c r="AD10" s="26"/>
       <c r="AE10" s="22" t="s">
         <v>0</v>
       </c>
@@ -1802,7 +1805,7 @@
       <c r="AP10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AR10" s="30"/>
+      <c r="AR10" s="26"/>
       <c r="AS10" s="22" t="s">
         <v>0</v>
       </c>
@@ -1839,7 +1842,7 @@
       <c r="BD10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BF10" s="30"/>
+      <c r="BF10" s="26"/>
       <c r="BG10" s="22" t="s">
         <v>0</v>
       </c>
@@ -1876,7 +1879,7 @@
       <c r="BR10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BT10" s="30"/>
+      <c r="BT10" s="26"/>
       <c r="BU10" s="22" t="s">
         <v>0</v>
       </c>
@@ -1913,7 +1916,7 @@
       <c r="CF10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CH10" s="30"/>
+      <c r="CH10" s="26"/>
       <c r="CI10" s="22" t="s">
         <v>0</v>
       </c>
@@ -1950,7 +1953,7 @@
       <c r="CT10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CV10" s="30"/>
+      <c r="CV10" s="26"/>
       <c r="CW10" s="22" t="s">
         <v>0</v>
       </c>
@@ -2710,70 +2713,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="CV7:DH7"/>
-    <mergeCell ref="CV8:CV10"/>
-    <mergeCell ref="CW8:DB8"/>
-    <mergeCell ref="DC8:DH8"/>
-    <mergeCell ref="CW9:CX9"/>
-    <mergeCell ref="CY9:CZ9"/>
-    <mergeCell ref="DA9:DB9"/>
-    <mergeCell ref="DC9:DD9"/>
-    <mergeCell ref="DE9:DF9"/>
-    <mergeCell ref="DG9:DH9"/>
-    <mergeCell ref="CH7:CT7"/>
-    <mergeCell ref="CH8:CH10"/>
-    <mergeCell ref="CI8:CN8"/>
-    <mergeCell ref="CO8:CT8"/>
-    <mergeCell ref="CI9:CJ9"/>
-    <mergeCell ref="CK9:CL9"/>
-    <mergeCell ref="CM9:CN9"/>
-    <mergeCell ref="CO9:CP9"/>
-    <mergeCell ref="CQ9:CR9"/>
-    <mergeCell ref="CS9:CT9"/>
-    <mergeCell ref="BT7:CF7"/>
-    <mergeCell ref="BT8:BT10"/>
-    <mergeCell ref="BU8:BZ8"/>
-    <mergeCell ref="CA8:CF8"/>
-    <mergeCell ref="BU9:BV9"/>
-    <mergeCell ref="BW9:BX9"/>
-    <mergeCell ref="BY9:BZ9"/>
-    <mergeCell ref="CA9:CB9"/>
-    <mergeCell ref="CC9:CD9"/>
-    <mergeCell ref="CE9:CF9"/>
-    <mergeCell ref="BF7:BR7"/>
-    <mergeCell ref="BF8:BF10"/>
-    <mergeCell ref="BG8:BL8"/>
-    <mergeCell ref="BM8:BR8"/>
-    <mergeCell ref="BG9:BH9"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="BK9:BL9"/>
-    <mergeCell ref="BM9:BN9"/>
-    <mergeCell ref="BO9:BP9"/>
-    <mergeCell ref="BQ9:BR9"/>
-    <mergeCell ref="AK8:AP8"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="AR7:BD7"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AS8:AX8"/>
-    <mergeCell ref="AY8:BD8"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AU9:AV9"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="B7:N7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
     <mergeCell ref="P7:AB7"/>
     <mergeCell ref="Q8:V8"/>
     <mergeCell ref="AG9:AH9"/>
@@ -2790,6 +2729,70 @@
     <mergeCell ref="AD7:AP7"/>
     <mergeCell ref="AD8:AD10"/>
     <mergeCell ref="AE8:AJ8"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="AK8:AP8"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="AR7:BD7"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AS8:AX8"/>
+    <mergeCell ref="AY8:BD8"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AU9:AV9"/>
+    <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="BF7:BR7"/>
+    <mergeCell ref="BF8:BF10"/>
+    <mergeCell ref="BG8:BL8"/>
+    <mergeCell ref="BM8:BR8"/>
+    <mergeCell ref="BG9:BH9"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="BK9:BL9"/>
+    <mergeCell ref="BM9:BN9"/>
+    <mergeCell ref="BO9:BP9"/>
+    <mergeCell ref="BQ9:BR9"/>
+    <mergeCell ref="BT7:CF7"/>
+    <mergeCell ref="BT8:BT10"/>
+    <mergeCell ref="BU8:BZ8"/>
+    <mergeCell ref="CA8:CF8"/>
+    <mergeCell ref="BU9:BV9"/>
+    <mergeCell ref="BW9:BX9"/>
+    <mergeCell ref="BY9:BZ9"/>
+    <mergeCell ref="CA9:CB9"/>
+    <mergeCell ref="CC9:CD9"/>
+    <mergeCell ref="CE9:CF9"/>
+    <mergeCell ref="CH7:CT7"/>
+    <mergeCell ref="CH8:CH10"/>
+    <mergeCell ref="CI8:CN8"/>
+    <mergeCell ref="CO8:CT8"/>
+    <mergeCell ref="CI9:CJ9"/>
+    <mergeCell ref="CK9:CL9"/>
+    <mergeCell ref="CM9:CN9"/>
+    <mergeCell ref="CO9:CP9"/>
+    <mergeCell ref="CQ9:CR9"/>
+    <mergeCell ref="CS9:CT9"/>
+    <mergeCell ref="CV7:DH7"/>
+    <mergeCell ref="CV8:CV10"/>
+    <mergeCell ref="CW8:DB8"/>
+    <mergeCell ref="DC8:DH8"/>
+    <mergeCell ref="CW9:CX9"/>
+    <mergeCell ref="CY9:CZ9"/>
+    <mergeCell ref="DA9:DB9"/>
+    <mergeCell ref="DC9:DD9"/>
+    <mergeCell ref="DE9:DF9"/>
+    <mergeCell ref="DG9:DH9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2798,10 +2801,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DV17"/>
+  <dimension ref="A1:DV18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="DM36" sqref="DM36"/>
+    <sheetView topLeftCell="DH1" workbookViewId="0">
+      <selection activeCell="DJ21" sqref="DJ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3281,401 +3284,401 @@
       <c r="B8" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="P8" s="30" t="s">
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="P8" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="Q8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="29" t="s">
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AD8" s="30" t="s">
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AD8" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="AE8" s="26" t="s">
+      <c r="AE8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="29" t="s">
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AL8" s="29"/>
-      <c r="AM8" s="29"/>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="29"/>
-      <c r="AP8" s="29"/>
-      <c r="AR8" s="30" t="s">
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
+      <c r="AR8" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="AS8" s="26" t="s">
+      <c r="AS8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="AT8" s="27"/>
-      <c r="AU8" s="27"/>
-      <c r="AV8" s="27"/>
-      <c r="AW8" s="27"/>
-      <c r="AX8" s="28"/>
-      <c r="AY8" s="29" t="s">
+      <c r="AT8" s="28"/>
+      <c r="AU8" s="28"/>
+      <c r="AV8" s="28"/>
+      <c r="AW8" s="28"/>
+      <c r="AX8" s="29"/>
+      <c r="AY8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AZ8" s="29"/>
-      <c r="BA8" s="29"/>
-      <c r="BB8" s="29"/>
-      <c r="BC8" s="29"/>
-      <c r="BD8" s="29"/>
-      <c r="BF8" s="30" t="s">
+      <c r="AZ8" s="30"/>
+      <c r="BA8" s="30"/>
+      <c r="BB8" s="30"/>
+      <c r="BC8" s="30"/>
+      <c r="BD8" s="30"/>
+      <c r="BF8" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="BG8" s="26" t="s">
+      <c r="BG8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="BH8" s="27"/>
-      <c r="BI8" s="27"/>
-      <c r="BJ8" s="27"/>
-      <c r="BK8" s="27"/>
-      <c r="BL8" s="28"/>
-      <c r="BM8" s="29" t="s">
+      <c r="BH8" s="28"/>
+      <c r="BI8" s="28"/>
+      <c r="BJ8" s="28"/>
+      <c r="BK8" s="28"/>
+      <c r="BL8" s="29"/>
+      <c r="BM8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="BN8" s="29"/>
-      <c r="BO8" s="29"/>
-      <c r="BP8" s="29"/>
-      <c r="BQ8" s="29"/>
-      <c r="BR8" s="29"/>
-      <c r="BT8" s="30" t="s">
+      <c r="BN8" s="30"/>
+      <c r="BO8" s="30"/>
+      <c r="BP8" s="30"/>
+      <c r="BQ8" s="30"/>
+      <c r="BR8" s="30"/>
+      <c r="BT8" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="BU8" s="26" t="s">
+      <c r="BU8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="BV8" s="27"/>
-      <c r="BW8" s="27"/>
-      <c r="BX8" s="27"/>
-      <c r="BY8" s="27"/>
-      <c r="BZ8" s="28"/>
-      <c r="CA8" s="29" t="s">
+      <c r="BV8" s="28"/>
+      <c r="BW8" s="28"/>
+      <c r="BX8" s="28"/>
+      <c r="BY8" s="28"/>
+      <c r="BZ8" s="29"/>
+      <c r="CA8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="CB8" s="29"/>
-      <c r="CC8" s="29"/>
-      <c r="CD8" s="29"/>
-      <c r="CE8" s="29"/>
-      <c r="CF8" s="29"/>
-      <c r="CH8" s="30" t="s">
+      <c r="CB8" s="30"/>
+      <c r="CC8" s="30"/>
+      <c r="CD8" s="30"/>
+      <c r="CE8" s="30"/>
+      <c r="CF8" s="30"/>
+      <c r="CH8" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="CI8" s="26" t="s">
+      <c r="CI8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="CJ8" s="27"/>
-      <c r="CK8" s="27"/>
-      <c r="CL8" s="27"/>
-      <c r="CM8" s="27"/>
-      <c r="CN8" s="28"/>
-      <c r="CO8" s="29" t="s">
+      <c r="CJ8" s="28"/>
+      <c r="CK8" s="28"/>
+      <c r="CL8" s="28"/>
+      <c r="CM8" s="28"/>
+      <c r="CN8" s="29"/>
+      <c r="CO8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="CP8" s="29"/>
-      <c r="CQ8" s="29"/>
-      <c r="CR8" s="29"/>
-      <c r="CS8" s="29"/>
-      <c r="CT8" s="29"/>
-      <c r="CV8" s="30" t="s">
+      <c r="CP8" s="30"/>
+      <c r="CQ8" s="30"/>
+      <c r="CR8" s="30"/>
+      <c r="CS8" s="30"/>
+      <c r="CT8" s="30"/>
+      <c r="CV8" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="CW8" s="26" t="s">
+      <c r="CW8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="CX8" s="27"/>
-      <c r="CY8" s="27"/>
-      <c r="CZ8" s="27"/>
-      <c r="DA8" s="27"/>
-      <c r="DB8" s="28"/>
-      <c r="DC8" s="29" t="s">
+      <c r="CX8" s="28"/>
+      <c r="CY8" s="28"/>
+      <c r="CZ8" s="28"/>
+      <c r="DA8" s="28"/>
+      <c r="DB8" s="29"/>
+      <c r="DC8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="DD8" s="29"/>
-      <c r="DE8" s="29"/>
-      <c r="DF8" s="29"/>
-      <c r="DG8" s="29"/>
-      <c r="DH8" s="29"/>
-      <c r="DJ8" s="30" t="s">
+      <c r="DD8" s="30"/>
+      <c r="DE8" s="30"/>
+      <c r="DF8" s="30"/>
+      <c r="DG8" s="30"/>
+      <c r="DH8" s="30"/>
+      <c r="DJ8" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="DK8" s="26" t="s">
+      <c r="DK8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="DL8" s="27"/>
-      <c r="DM8" s="27"/>
-      <c r="DN8" s="27"/>
-      <c r="DO8" s="27"/>
-      <c r="DP8" s="28"/>
-      <c r="DQ8" s="29" t="s">
+      <c r="DL8" s="28"/>
+      <c r="DM8" s="28"/>
+      <c r="DN8" s="28"/>
+      <c r="DO8" s="28"/>
+      <c r="DP8" s="29"/>
+      <c r="DQ8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="DR8" s="29"/>
-      <c r="DS8" s="29"/>
-      <c r="DT8" s="29"/>
-      <c r="DU8" s="29"/>
-      <c r="DV8" s="29"/>
+      <c r="DR8" s="30"/>
+      <c r="DS8" s="30"/>
+      <c r="DT8" s="30"/>
+      <c r="DU8" s="30"/>
+      <c r="DV8" s="30"/>
     </row>
     <row r="9" spans="1:126" x14ac:dyDescent="0.2">
       <c r="B9" s="31"/>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="26" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="26" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29" t="s">
+      <c r="H9" s="29"/>
+      <c r="I9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29" t="s">
+      <c r="J9" s="30"/>
+      <c r="K9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29" t="s">
+      <c r="L9" s="30"/>
+      <c r="M9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="29"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="26" t="s">
+      <c r="N9" s="30"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="27"/>
-      <c r="S9" s="26" t="s">
+      <c r="R9" s="28"/>
+      <c r="S9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="27"/>
-      <c r="U9" s="26" t="s">
+      <c r="T9" s="28"/>
+      <c r="U9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="28"/>
-      <c r="W9" s="29" t="s">
+      <c r="V9" s="29"/>
+      <c r="W9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29" t="s">
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29" t="s">
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AB9" s="29"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="26" t="s">
+      <c r="AB9" s="30"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="26" t="s">
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="26" t="s">
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="29" t="s">
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AL9" s="29"/>
-      <c r="AM9" s="29" t="s">
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29" t="s">
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AP9" s="29"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="26" t="s">
+      <c r="AP9" s="30"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AT9" s="27"/>
-      <c r="AU9" s="26" t="s">
+      <c r="AT9" s="28"/>
+      <c r="AU9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="26" t="s">
+      <c r="AV9" s="28"/>
+      <c r="AW9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AX9" s="28"/>
-      <c r="AY9" s="29" t="s">
+      <c r="AX9" s="29"/>
+      <c r="AY9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AZ9" s="29"/>
-      <c r="BA9" s="29" t="s">
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="BB9" s="29"/>
-      <c r="BC9" s="29" t="s">
+      <c r="BB9" s="30"/>
+      <c r="BC9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BD9" s="29"/>
-      <c r="BF9" s="30"/>
-      <c r="BG9" s="26" t="s">
+      <c r="BD9" s="30"/>
+      <c r="BF9" s="26"/>
+      <c r="BG9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="BH9" s="27"/>
-      <c r="BI9" s="26" t="s">
+      <c r="BH9" s="28"/>
+      <c r="BI9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="BJ9" s="27"/>
-      <c r="BK9" s="26" t="s">
+      <c r="BJ9" s="28"/>
+      <c r="BK9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BL9" s="28"/>
-      <c r="BM9" s="29" t="s">
+      <c r="BL9" s="29"/>
+      <c r="BM9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="BN9" s="29"/>
-      <c r="BO9" s="29" t="s">
+      <c r="BN9" s="30"/>
+      <c r="BO9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="BP9" s="29"/>
-      <c r="BQ9" s="29" t="s">
+      <c r="BP9" s="30"/>
+      <c r="BQ9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BR9" s="29"/>
-      <c r="BT9" s="30"/>
-      <c r="BU9" s="26" t="s">
+      <c r="BR9" s="30"/>
+      <c r="BT9" s="26"/>
+      <c r="BU9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="BV9" s="27"/>
-      <c r="BW9" s="26" t="s">
+      <c r="BV9" s="28"/>
+      <c r="BW9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="BX9" s="27"/>
-      <c r="BY9" s="26" t="s">
+      <c r="BX9" s="28"/>
+      <c r="BY9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BZ9" s="28"/>
-      <c r="CA9" s="29" t="s">
+      <c r="BZ9" s="29"/>
+      <c r="CA9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="CB9" s="29"/>
-      <c r="CC9" s="29" t="s">
+      <c r="CB9" s="30"/>
+      <c r="CC9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="CD9" s="29"/>
-      <c r="CE9" s="29" t="s">
+      <c r="CD9" s="30"/>
+      <c r="CE9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="CF9" s="29"/>
-      <c r="CH9" s="30"/>
-      <c r="CI9" s="26" t="s">
+      <c r="CF9" s="30"/>
+      <c r="CH9" s="26"/>
+      <c r="CI9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CJ9" s="27"/>
-      <c r="CK9" s="26" t="s">
+      <c r="CJ9" s="28"/>
+      <c r="CK9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CL9" s="27"/>
-      <c r="CM9" s="26" t="s">
+      <c r="CL9" s="28"/>
+      <c r="CM9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="CN9" s="28"/>
-      <c r="CO9" s="29" t="s">
+      <c r="CN9" s="29"/>
+      <c r="CO9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="CP9" s="29"/>
-      <c r="CQ9" s="29" t="s">
+      <c r="CP9" s="30"/>
+      <c r="CQ9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="CR9" s="29"/>
-      <c r="CS9" s="29" t="s">
+      <c r="CR9" s="30"/>
+      <c r="CS9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="CT9" s="29"/>
-      <c r="CV9" s="30"/>
-      <c r="CW9" s="26" t="s">
+      <c r="CT9" s="30"/>
+      <c r="CV9" s="26"/>
+      <c r="CW9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CX9" s="27"/>
-      <c r="CY9" s="26" t="s">
+      <c r="CX9" s="28"/>
+      <c r="CY9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CZ9" s="27"/>
-      <c r="DA9" s="26" t="s">
+      <c r="CZ9" s="28"/>
+      <c r="DA9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="DB9" s="28"/>
-      <c r="DC9" s="29" t="s">
+      <c r="DB9" s="29"/>
+      <c r="DC9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="DD9" s="29"/>
-      <c r="DE9" s="29" t="s">
+      <c r="DD9" s="30"/>
+      <c r="DE9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="DF9" s="29"/>
-      <c r="DG9" s="29" t="s">
+      <c r="DF9" s="30"/>
+      <c r="DG9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="DH9" s="29"/>
-      <c r="DJ9" s="30"/>
-      <c r="DK9" s="26" t="s">
+      <c r="DH9" s="30"/>
+      <c r="DJ9" s="26"/>
+      <c r="DK9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="DL9" s="27"/>
-      <c r="DM9" s="26" t="s">
+      <c r="DL9" s="28"/>
+      <c r="DM9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="DN9" s="27"/>
-      <c r="DO9" s="26" t="s">
+      <c r="DN9" s="28"/>
+      <c r="DO9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="DP9" s="28"/>
-      <c r="DQ9" s="29" t="s">
+      <c r="DP9" s="29"/>
+      <c r="DQ9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="DR9" s="29"/>
-      <c r="DS9" s="29" t="s">
+      <c r="DR9" s="30"/>
+      <c r="DS9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="DT9" s="29"/>
-      <c r="DU9" s="29" t="s">
+      <c r="DT9" s="30"/>
+      <c r="DU9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="DV9" s="29"/>
+      <c r="DV9" s="30"/>
     </row>
     <row r="10" spans="1:126" x14ac:dyDescent="0.2">
       <c r="B10" s="31"/>
@@ -3715,7 +3718,7 @@
       <c r="N10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="30"/>
+      <c r="P10" s="26"/>
       <c r="Q10" s="22" t="s">
         <v>0</v>
       </c>
@@ -3752,7 +3755,7 @@
       <c r="AB10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AD10" s="30"/>
+      <c r="AD10" s="26"/>
       <c r="AE10" s="22" t="s">
         <v>0</v>
       </c>
@@ -3789,7 +3792,7 @@
       <c r="AP10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AR10" s="30"/>
+      <c r="AR10" s="26"/>
       <c r="AS10" s="22" t="s">
         <v>0</v>
       </c>
@@ -3826,7 +3829,7 @@
       <c r="BD10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BF10" s="30"/>
+      <c r="BF10" s="26"/>
       <c r="BG10" s="22" t="s">
         <v>0</v>
       </c>
@@ -3863,7 +3866,7 @@
       <c r="BR10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BT10" s="30"/>
+      <c r="BT10" s="26"/>
       <c r="BU10" s="22" t="s">
         <v>0</v>
       </c>
@@ -3900,7 +3903,7 @@
       <c r="CF10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CH10" s="30"/>
+      <c r="CH10" s="26"/>
       <c r="CI10" s="22" t="s">
         <v>0</v>
       </c>
@@ -3937,7 +3940,7 @@
       <c r="CT10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CV10" s="30"/>
+      <c r="CV10" s="26"/>
       <c r="CW10" s="22" t="s">
         <v>0</v>
       </c>
@@ -3974,7 +3977,7 @@
       <c r="DH10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="DJ10" s="30"/>
+      <c r="DJ10" s="26"/>
       <c r="DK10" s="22" t="s">
         <v>0</v>
       </c>
@@ -4932,45 +4935,167 @@
       <c r="DU17" s="4"/>
       <c r="DV17" s="4"/>
     </row>
+    <row r="18" spans="16:126" x14ac:dyDescent="0.2">
+      <c r="P18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AD18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AR18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BF18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG18" s="4"/>
+      <c r="BH18" s="4"/>
+      <c r="BI18" s="4"/>
+      <c r="BJ18" s="4"/>
+      <c r="BK18" s="4"/>
+      <c r="BL18" s="4"/>
+      <c r="BM18" s="4"/>
+      <c r="BN18" s="4"/>
+      <c r="BO18" s="4"/>
+      <c r="BP18" s="4"/>
+      <c r="BQ18" s="4"/>
+      <c r="BR18" s="4"/>
+      <c r="BT18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU18" s="4"/>
+      <c r="BV18" s="4"/>
+      <c r="BW18" s="4"/>
+      <c r="BX18" s="4"/>
+      <c r="BY18" s="4"/>
+      <c r="BZ18" s="4"/>
+      <c r="CA18" s="4"/>
+      <c r="CB18" s="4"/>
+      <c r="CC18" s="4"/>
+      <c r="CD18" s="4"/>
+      <c r="CE18" s="4"/>
+      <c r="CF18" s="4"/>
+      <c r="CH18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI18" s="4"/>
+      <c r="CJ18" s="4"/>
+      <c r="CK18" s="4"/>
+      <c r="CL18" s="4"/>
+      <c r="CM18" s="4"/>
+      <c r="CN18" s="4"/>
+      <c r="CO18" s="4"/>
+      <c r="CP18" s="4"/>
+      <c r="CQ18" s="4"/>
+      <c r="CR18" s="4"/>
+      <c r="CS18" s="4"/>
+      <c r="CT18" s="4"/>
+      <c r="CV18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CW18" s="4"/>
+      <c r="CX18" s="4"/>
+      <c r="CY18" s="4"/>
+      <c r="CZ18" s="4"/>
+      <c r="DA18" s="4"/>
+      <c r="DB18" s="4"/>
+      <c r="DC18" s="4"/>
+      <c r="DD18" s="4"/>
+      <c r="DE18" s="4"/>
+      <c r="DF18" s="4"/>
+      <c r="DG18" s="4"/>
+      <c r="DH18" s="4"/>
+      <c r="DJ18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="DK18" s="4"/>
+      <c r="DL18" s="4"/>
+      <c r="DM18" s="4"/>
+      <c r="DN18" s="4"/>
+      <c r="DO18" s="4"/>
+      <c r="DP18" s="4"/>
+      <c r="DQ18" s="4"/>
+      <c r="DR18" s="4"/>
+      <c r="DS18" s="4"/>
+      <c r="DT18" s="4"/>
+      <c r="DU18" s="4"/>
+      <c r="DV18" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="DA9:DB9"/>
-    <mergeCell ref="DC9:DD9"/>
-    <mergeCell ref="DE9:DF9"/>
-    <mergeCell ref="DG9:DH9"/>
-    <mergeCell ref="DJ7:DV7"/>
-    <mergeCell ref="DJ8:DJ10"/>
-    <mergeCell ref="DK8:DP8"/>
-    <mergeCell ref="DQ8:DV8"/>
-    <mergeCell ref="DK9:DL9"/>
-    <mergeCell ref="DM9:DN9"/>
-    <mergeCell ref="DO9:DP9"/>
-    <mergeCell ref="DQ9:DR9"/>
-    <mergeCell ref="DS9:DT9"/>
-    <mergeCell ref="DU9:DV9"/>
-    <mergeCell ref="BK9:BL9"/>
-    <mergeCell ref="CY9:CZ9"/>
-    <mergeCell ref="BY9:BZ9"/>
-    <mergeCell ref="CA9:CB9"/>
-    <mergeCell ref="CC9:CD9"/>
-    <mergeCell ref="CE9:CF9"/>
-    <mergeCell ref="CI9:CJ9"/>
-    <mergeCell ref="CK9:CL9"/>
-    <mergeCell ref="CM9:CN9"/>
-    <mergeCell ref="CO9:CP9"/>
-    <mergeCell ref="CQ9:CR9"/>
-    <mergeCell ref="CS9:CT9"/>
-    <mergeCell ref="CW9:CX9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="BG9:BH9"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="CH7:CT7"/>
+    <mergeCell ref="CV7:DH7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="P8:P10"/>
+    <mergeCell ref="Q8:V8"/>
+    <mergeCell ref="W8:AB8"/>
+    <mergeCell ref="AD8:AD10"/>
+    <mergeCell ref="AE8:AJ8"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="P7:AB7"/>
+    <mergeCell ref="AD7:AP7"/>
+    <mergeCell ref="AR7:BD7"/>
+    <mergeCell ref="BF7:BR7"/>
+    <mergeCell ref="BT7:CF7"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="BM8:BR8"/>
+    <mergeCell ref="BT8:BT10"/>
+    <mergeCell ref="BU8:BZ8"/>
+    <mergeCell ref="CA8:CF8"/>
+    <mergeCell ref="BO9:BP9"/>
+    <mergeCell ref="BQ9:BR9"/>
+    <mergeCell ref="BU9:BV9"/>
+    <mergeCell ref="BW9:BX9"/>
+    <mergeCell ref="AK8:AP8"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AS8:AX8"/>
+    <mergeCell ref="AY8:BD8"/>
+    <mergeCell ref="BF8:BF10"/>
+    <mergeCell ref="BG8:BL8"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
     <mergeCell ref="AA9:AB9"/>
     <mergeCell ref="CO8:CT8"/>
     <mergeCell ref="CV8:CV10"/>
@@ -4987,43 +5112,43 @@
     <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="AK9:AL9"/>
     <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="BM8:BR8"/>
-    <mergeCell ref="BT8:BT10"/>
-    <mergeCell ref="BU8:BZ8"/>
-    <mergeCell ref="CA8:CF8"/>
-    <mergeCell ref="BO9:BP9"/>
-    <mergeCell ref="BQ9:BR9"/>
-    <mergeCell ref="BU9:BV9"/>
-    <mergeCell ref="BW9:BX9"/>
-    <mergeCell ref="AK8:AP8"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AS8:AX8"/>
-    <mergeCell ref="AY8:BD8"/>
-    <mergeCell ref="BF8:BF10"/>
-    <mergeCell ref="BG8:BL8"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="CH7:CT7"/>
-    <mergeCell ref="CV7:DH7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="P8:P10"/>
-    <mergeCell ref="Q8:V8"/>
-    <mergeCell ref="W8:AB8"/>
-    <mergeCell ref="AD8:AD10"/>
-    <mergeCell ref="AE8:AJ8"/>
-    <mergeCell ref="B7:N7"/>
-    <mergeCell ref="P7:AB7"/>
-    <mergeCell ref="AD7:AP7"/>
-    <mergeCell ref="AR7:BD7"/>
-    <mergeCell ref="BF7:BR7"/>
-    <mergeCell ref="BT7:CF7"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="BG9:BH9"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="BK9:BL9"/>
+    <mergeCell ref="CY9:CZ9"/>
+    <mergeCell ref="BY9:BZ9"/>
+    <mergeCell ref="CA9:CB9"/>
+    <mergeCell ref="CC9:CD9"/>
+    <mergeCell ref="CE9:CF9"/>
+    <mergeCell ref="CI9:CJ9"/>
+    <mergeCell ref="CK9:CL9"/>
+    <mergeCell ref="CM9:CN9"/>
+    <mergeCell ref="CO9:CP9"/>
+    <mergeCell ref="CQ9:CR9"/>
+    <mergeCell ref="CS9:CT9"/>
+    <mergeCell ref="CW9:CX9"/>
+    <mergeCell ref="DA9:DB9"/>
+    <mergeCell ref="DC9:DD9"/>
+    <mergeCell ref="DE9:DF9"/>
+    <mergeCell ref="DG9:DH9"/>
+    <mergeCell ref="DJ7:DV7"/>
+    <mergeCell ref="DJ8:DJ10"/>
+    <mergeCell ref="DK8:DP8"/>
+    <mergeCell ref="DQ8:DV8"/>
+    <mergeCell ref="DK9:DL9"/>
+    <mergeCell ref="DM9:DN9"/>
+    <mergeCell ref="DO9:DP9"/>
+    <mergeCell ref="DQ9:DR9"/>
+    <mergeCell ref="DS9:DT9"/>
+    <mergeCell ref="DU9:DV9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5032,10 +5157,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CT15"/>
+  <dimension ref="A1:CT16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="CG1" workbookViewId="0">
+      <selection activeCell="CH18" sqref="CH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5354,314 +5479,314 @@
       <c r="B8" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="P8" s="30" t="s">
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="P8" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="Q8" s="26" t="s">
+      <c r="Q8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="29" t="s">
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="29"/>
-      <c r="AB8" s="29"/>
-      <c r="AD8" s="30" t="s">
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AD8" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="AE8" s="26" t="s">
+      <c r="AE8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="AF8" s="27"/>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="27"/>
-      <c r="AI8" s="27"/>
-      <c r="AJ8" s="28"/>
-      <c r="AK8" s="29" t="s">
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AL8" s="29"/>
-      <c r="AM8" s="29"/>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="29"/>
-      <c r="AP8" s="29"/>
-      <c r="AR8" s="30" t="s">
+      <c r="AL8" s="30"/>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
+      <c r="AR8" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="AS8" s="26" t="s">
+      <c r="AS8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="AT8" s="27"/>
-      <c r="AU8" s="27"/>
-      <c r="AV8" s="27"/>
-      <c r="AW8" s="27"/>
-      <c r="AX8" s="28"/>
-      <c r="AY8" s="29" t="s">
+      <c r="AT8" s="28"/>
+      <c r="AU8" s="28"/>
+      <c r="AV8" s="28"/>
+      <c r="AW8" s="28"/>
+      <c r="AX8" s="29"/>
+      <c r="AY8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AZ8" s="29"/>
-      <c r="BA8" s="29"/>
-      <c r="BB8" s="29"/>
-      <c r="BC8" s="29"/>
-      <c r="BD8" s="29"/>
-      <c r="BF8" s="30" t="s">
+      <c r="AZ8" s="30"/>
+      <c r="BA8" s="30"/>
+      <c r="BB8" s="30"/>
+      <c r="BC8" s="30"/>
+      <c r="BD8" s="30"/>
+      <c r="BF8" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="BG8" s="26" t="s">
+      <c r="BG8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="BH8" s="27"/>
-      <c r="BI8" s="27"/>
-      <c r="BJ8" s="27"/>
-      <c r="BK8" s="27"/>
-      <c r="BL8" s="28"/>
-      <c r="BM8" s="29" t="s">
+      <c r="BH8" s="28"/>
+      <c r="BI8" s="28"/>
+      <c r="BJ8" s="28"/>
+      <c r="BK8" s="28"/>
+      <c r="BL8" s="29"/>
+      <c r="BM8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="BN8" s="29"/>
-      <c r="BO8" s="29"/>
-      <c r="BP8" s="29"/>
-      <c r="BQ8" s="29"/>
-      <c r="BR8" s="29"/>
-      <c r="BT8" s="30" t="s">
+      <c r="BN8" s="30"/>
+      <c r="BO8" s="30"/>
+      <c r="BP8" s="30"/>
+      <c r="BQ8" s="30"/>
+      <c r="BR8" s="30"/>
+      <c r="BT8" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="BU8" s="26" t="s">
+      <c r="BU8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="BV8" s="27"/>
-      <c r="BW8" s="27"/>
-      <c r="BX8" s="27"/>
-      <c r="BY8" s="27"/>
-      <c r="BZ8" s="28"/>
-      <c r="CA8" s="29" t="s">
+      <c r="BV8" s="28"/>
+      <c r="BW8" s="28"/>
+      <c r="BX8" s="28"/>
+      <c r="BY8" s="28"/>
+      <c r="BZ8" s="29"/>
+      <c r="CA8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="CB8" s="29"/>
-      <c r="CC8" s="29"/>
-      <c r="CD8" s="29"/>
-      <c r="CE8" s="29"/>
-      <c r="CF8" s="29"/>
-      <c r="CH8" s="30" t="s">
+      <c r="CB8" s="30"/>
+      <c r="CC8" s="30"/>
+      <c r="CD8" s="30"/>
+      <c r="CE8" s="30"/>
+      <c r="CF8" s="30"/>
+      <c r="CH8" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="CI8" s="26" t="s">
+      <c r="CI8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="CJ8" s="27"/>
-      <c r="CK8" s="27"/>
-      <c r="CL8" s="27"/>
-      <c r="CM8" s="27"/>
-      <c r="CN8" s="28"/>
-      <c r="CO8" s="29" t="s">
+      <c r="CJ8" s="28"/>
+      <c r="CK8" s="28"/>
+      <c r="CL8" s="28"/>
+      <c r="CM8" s="28"/>
+      <c r="CN8" s="29"/>
+      <c r="CO8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="CP8" s="29"/>
-      <c r="CQ8" s="29"/>
-      <c r="CR8" s="29"/>
-      <c r="CS8" s="29"/>
-      <c r="CT8" s="29"/>
+      <c r="CP8" s="30"/>
+      <c r="CQ8" s="30"/>
+      <c r="CR8" s="30"/>
+      <c r="CS8" s="30"/>
+      <c r="CT8" s="30"/>
     </row>
     <row r="9" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="26" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="26" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="29" t="s">
+      <c r="H9" s="29"/>
+      <c r="I9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29" t="s">
+      <c r="J9" s="30"/>
+      <c r="K9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29" t="s">
+      <c r="L9" s="30"/>
+      <c r="M9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="29"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="26" t="s">
+      <c r="N9" s="30"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="27"/>
-      <c r="S9" s="26" t="s">
+      <c r="R9" s="28"/>
+      <c r="S9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="T9" s="27"/>
-      <c r="U9" s="26" t="s">
+      <c r="T9" s="28"/>
+      <c r="U9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="V9" s="28"/>
-      <c r="W9" s="29" t="s">
+      <c r="V9" s="29"/>
+      <c r="W9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29" t="s">
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29" t="s">
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AB9" s="29"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="26" t="s">
+      <c r="AB9" s="30"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="26" t="s">
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="26" t="s">
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="29" t="s">
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AL9" s="29"/>
-      <c r="AM9" s="29" t="s">
+      <c r="AL9" s="30"/>
+      <c r="AM9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29" t="s">
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AP9" s="29"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="26" t="s">
+      <c r="AP9" s="30"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AT9" s="27"/>
-      <c r="AU9" s="26" t="s">
+      <c r="AT9" s="28"/>
+      <c r="AU9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="26" t="s">
+      <c r="AV9" s="28"/>
+      <c r="AW9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="AX9" s="28"/>
-      <c r="AY9" s="29" t="s">
+      <c r="AX9" s="29"/>
+      <c r="AY9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="AZ9" s="29"/>
-      <c r="BA9" s="29" t="s">
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="BB9" s="29"/>
-      <c r="BC9" s="29" t="s">
+      <c r="BB9" s="30"/>
+      <c r="BC9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BD9" s="29"/>
-      <c r="BF9" s="30"/>
-      <c r="BG9" s="26" t="s">
+      <c r="BD9" s="30"/>
+      <c r="BF9" s="26"/>
+      <c r="BG9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="BH9" s="27"/>
-      <c r="BI9" s="26" t="s">
+      <c r="BH9" s="28"/>
+      <c r="BI9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="BJ9" s="27"/>
-      <c r="BK9" s="26" t="s">
+      <c r="BJ9" s="28"/>
+      <c r="BK9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BL9" s="28"/>
-      <c r="BM9" s="29" t="s">
+      <c r="BL9" s="29"/>
+      <c r="BM9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="BN9" s="29"/>
-      <c r="BO9" s="29" t="s">
+      <c r="BN9" s="30"/>
+      <c r="BO9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="BP9" s="29"/>
-      <c r="BQ9" s="29" t="s">
+      <c r="BP9" s="30"/>
+      <c r="BQ9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BR9" s="29"/>
-      <c r="BT9" s="30"/>
-      <c r="BU9" s="26" t="s">
+      <c r="BR9" s="30"/>
+      <c r="BT9" s="26"/>
+      <c r="BU9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="BV9" s="27"/>
-      <c r="BW9" s="26" t="s">
+      <c r="BV9" s="28"/>
+      <c r="BW9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="BX9" s="27"/>
-      <c r="BY9" s="26" t="s">
+      <c r="BX9" s="28"/>
+      <c r="BY9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="BZ9" s="28"/>
-      <c r="CA9" s="29" t="s">
+      <c r="BZ9" s="29"/>
+      <c r="CA9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="CB9" s="29"/>
-      <c r="CC9" s="29" t="s">
+      <c r="CB9" s="30"/>
+      <c r="CC9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="CD9" s="29"/>
-      <c r="CE9" s="29" t="s">
+      <c r="CD9" s="30"/>
+      <c r="CE9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="CF9" s="29"/>
-      <c r="CH9" s="30"/>
-      <c r="CI9" s="26" t="s">
+      <c r="CF9" s="30"/>
+      <c r="CH9" s="26"/>
+      <c r="CI9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CJ9" s="27"/>
-      <c r="CK9" s="26" t="s">
+      <c r="CJ9" s="28"/>
+      <c r="CK9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CL9" s="27"/>
-      <c r="CM9" s="26" t="s">
+      <c r="CL9" s="28"/>
+      <c r="CM9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="CN9" s="28"/>
-      <c r="CO9" s="29" t="s">
+      <c r="CN9" s="29"/>
+      <c r="CO9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="CP9" s="29"/>
-      <c r="CQ9" s="29" t="s">
+      <c r="CP9" s="30"/>
+      <c r="CQ9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="CR9" s="29"/>
-      <c r="CS9" s="29" t="s">
+      <c r="CR9" s="30"/>
+      <c r="CS9" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="CT9" s="29"/>
+      <c r="CT9" s="30"/>
     </row>
     <row r="10" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
@@ -5702,7 +5827,7 @@
       <c r="N10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P10" s="30"/>
+      <c r="P10" s="26"/>
       <c r="Q10" s="24" t="s">
         <v>0</v>
       </c>
@@ -5739,7 +5864,7 @@
       <c r="AB10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AD10" s="30"/>
+      <c r="AD10" s="26"/>
       <c r="AE10" s="24" t="s">
         <v>0</v>
       </c>
@@ -5776,7 +5901,7 @@
       <c r="AP10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AR10" s="30"/>
+      <c r="AR10" s="26"/>
       <c r="AS10" s="24" t="s">
         <v>0</v>
       </c>
@@ -5813,7 +5938,7 @@
       <c r="BD10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BF10" s="30"/>
+      <c r="BF10" s="26"/>
       <c r="BG10" s="24" t="s">
         <v>0</v>
       </c>
@@ -5850,7 +5975,7 @@
       <c r="BR10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="BT10" s="30"/>
+      <c r="BT10" s="26"/>
       <c r="BU10" s="24" t="s">
         <v>0</v>
       </c>
@@ -5887,7 +6012,7 @@
       <c r="CF10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="CH10" s="30"/>
+      <c r="CH10" s="26"/>
       <c r="CI10" s="24" t="s">
         <v>0</v>
       </c>
@@ -6455,8 +6580,160 @@
       <c r="CS15" s="4"/>
       <c r="CT15" s="4"/>
     </row>
+    <row r="16" spans="1:98" x14ac:dyDescent="0.2">
+      <c r="P16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AD16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AR16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="AX16" s="4"/>
+      <c r="AY16" s="4"/>
+      <c r="AZ16" s="4"/>
+      <c r="BA16" s="4"/>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="4"/>
+      <c r="BD16" s="4"/>
+      <c r="BF16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BG16" s="4"/>
+      <c r="BH16" s="4"/>
+      <c r="BI16" s="4"/>
+      <c r="BJ16" s="4"/>
+      <c r="BK16" s="4"/>
+      <c r="BL16" s="4"/>
+      <c r="BM16" s="4"/>
+      <c r="BN16" s="4"/>
+      <c r="BO16" s="4"/>
+      <c r="BP16" s="4"/>
+      <c r="BQ16" s="4"/>
+      <c r="BR16" s="4"/>
+      <c r="BT16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU16" s="4"/>
+      <c r="BV16" s="4"/>
+      <c r="BW16" s="4"/>
+      <c r="BX16" s="4"/>
+      <c r="BY16" s="4"/>
+      <c r="BZ16" s="4"/>
+      <c r="CA16" s="4"/>
+      <c r="CB16" s="4"/>
+      <c r="CC16" s="4"/>
+      <c r="CD16" s="4"/>
+      <c r="CE16" s="4"/>
+      <c r="CF16" s="4"/>
+      <c r="CH16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CI16" s="4"/>
+      <c r="CJ16" s="4"/>
+      <c r="CK16" s="4"/>
+      <c r="CL16" s="4"/>
+      <c r="CM16" s="4"/>
+      <c r="CN16" s="4"/>
+      <c r="CO16" s="4"/>
+      <c r="CP16" s="4"/>
+      <c r="CQ16" s="4"/>
+      <c r="CR16" s="4"/>
+      <c r="CS16" s="4"/>
+      <c r="CT16" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="CH7:CT7"/>
+    <mergeCell ref="CH8:CH10"/>
+    <mergeCell ref="CI8:CN8"/>
+    <mergeCell ref="CO8:CT8"/>
+    <mergeCell ref="CI9:CJ9"/>
+    <mergeCell ref="CK9:CL9"/>
+    <mergeCell ref="CM9:CN9"/>
+    <mergeCell ref="CO9:CP9"/>
+    <mergeCell ref="CQ9:CR9"/>
+    <mergeCell ref="CS9:CT9"/>
+    <mergeCell ref="BT7:CF7"/>
+    <mergeCell ref="BT8:BT10"/>
+    <mergeCell ref="BU8:BZ8"/>
+    <mergeCell ref="CA8:CF8"/>
+    <mergeCell ref="BU9:BV9"/>
+    <mergeCell ref="BW9:BX9"/>
+    <mergeCell ref="BY9:BZ9"/>
+    <mergeCell ref="CA9:CB9"/>
+    <mergeCell ref="CC9:CD9"/>
+    <mergeCell ref="CE9:CF9"/>
+    <mergeCell ref="BF7:BR7"/>
+    <mergeCell ref="BF8:BF10"/>
+    <mergeCell ref="BG8:BL8"/>
+    <mergeCell ref="BM8:BR8"/>
+    <mergeCell ref="BG9:BH9"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="BK9:BL9"/>
+    <mergeCell ref="BM9:BN9"/>
+    <mergeCell ref="BO9:BP9"/>
+    <mergeCell ref="BQ9:BR9"/>
+    <mergeCell ref="AR7:BD7"/>
+    <mergeCell ref="AR8:AR10"/>
+    <mergeCell ref="AS8:AX8"/>
+    <mergeCell ref="AY8:BD8"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AU9:AV9"/>
+    <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="BA9:BB9"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="AD7:AP7"/>
+    <mergeCell ref="AD8:AD10"/>
+    <mergeCell ref="AE8:AJ8"/>
+    <mergeCell ref="AK8:AP8"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:N8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
     <mergeCell ref="W9:X9"/>
     <mergeCell ref="Y9:Z9"/>
     <mergeCell ref="P7:AB7"/>
@@ -6467,66 +6744,6 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="U9:V9"/>
-    <mergeCell ref="B7:N7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:N8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="AD7:AP7"/>
-    <mergeCell ref="AD8:AD10"/>
-    <mergeCell ref="AE8:AJ8"/>
-    <mergeCell ref="AK8:AP8"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="AR7:BD7"/>
-    <mergeCell ref="AR8:AR10"/>
-    <mergeCell ref="AS8:AX8"/>
-    <mergeCell ref="AY8:BD8"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AU9:AV9"/>
-    <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="BA9:BB9"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="BF7:BR7"/>
-    <mergeCell ref="BF8:BF10"/>
-    <mergeCell ref="BG8:BL8"/>
-    <mergeCell ref="BM8:BR8"/>
-    <mergeCell ref="BG9:BH9"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="BK9:BL9"/>
-    <mergeCell ref="BM9:BN9"/>
-    <mergeCell ref="BO9:BP9"/>
-    <mergeCell ref="BQ9:BR9"/>
-    <mergeCell ref="BT7:CF7"/>
-    <mergeCell ref="BT8:BT10"/>
-    <mergeCell ref="BU8:BZ8"/>
-    <mergeCell ref="CA8:CF8"/>
-    <mergeCell ref="BU9:BV9"/>
-    <mergeCell ref="BW9:BX9"/>
-    <mergeCell ref="BY9:BZ9"/>
-    <mergeCell ref="CA9:CB9"/>
-    <mergeCell ref="CC9:CD9"/>
-    <mergeCell ref="CE9:CF9"/>
-    <mergeCell ref="CH7:CT7"/>
-    <mergeCell ref="CH8:CH10"/>
-    <mergeCell ref="CI8:CN8"/>
-    <mergeCell ref="CO8:CT8"/>
-    <mergeCell ref="CI9:CJ9"/>
-    <mergeCell ref="CK9:CL9"/>
-    <mergeCell ref="CM9:CN9"/>
-    <mergeCell ref="CO9:CP9"/>
-    <mergeCell ref="CQ9:CR9"/>
-    <mergeCell ref="CS9:CT9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
